--- a/File_for_Import/Reports/Измеряемые параметры ГПА №2.xlsx
+++ b/File_for_Import/Reports/Измеряемые параметры ГПА №2.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G162"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,6 +525,1974 @@
         <v/>
       </c>
     </row>
+    <row r="4" ht="20" customHeight="1">
+      <c r="A4" s="5">
+        <f>CONCATENATE($A$2, $A$1, C4, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B4" s="5">
+        <f>CONCATENATE($A$2, $A$1, C4, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C4" s="5">
+        <f>"AI.AI_Nnd1"</f>
+        <v/>
+      </c>
+      <c r="D4" s="6">
+        <f>"1"</f>
+        <v/>
+      </c>
+      <c r="E4" s="7">
+        <f>"Частота вращения ротора НД т.1  "</f>
+        <v/>
+      </c>
+      <c r="F4" s="6">
+        <f>CurrAttrValue(B4, 0)</f>
+        <v/>
+      </c>
+      <c r="G4" s="6">
+        <f>CurrAttrValue(A4, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1">
+      <c r="A5" s="5">
+        <f>CONCATENATE($A$2, $A$1, C5, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B5" s="5">
+        <f>CONCATENATE($A$2, $A$1, C5, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C5" s="5">
+        <f>"AI.AI_Nvd1"</f>
+        <v/>
+      </c>
+      <c r="D5" s="6">
+        <f>"2"</f>
+        <v/>
+      </c>
+      <c r="E5" s="7">
+        <f>"Частота вращения ротора ВД т.1  "</f>
+        <v/>
+      </c>
+      <c r="F5" s="6">
+        <f>CurrAttrValue(B5, 0)</f>
+        <v/>
+      </c>
+      <c r="G5" s="6">
+        <f>CurrAttrValue(A5, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1">
+      <c r="A6" s="5">
+        <f>CONCATENATE($A$2, $A$1, C6, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B6" s="5">
+        <f>CONCATENATE($A$2, $A$1, C6, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C6" s="5">
+        <f>"AI.AI_Nst1"</f>
+        <v/>
+      </c>
+      <c r="D6" s="6">
+        <f>"3"</f>
+        <v/>
+      </c>
+      <c r="E6" s="7">
+        <f>"Частота вращения ротора СТ т.1  "</f>
+        <v/>
+      </c>
+      <c r="F6" s="6">
+        <f>CurrAttrValue(B6, 0)</f>
+        <v/>
+      </c>
+      <c r="G6" s="6">
+        <f>CurrAttrValue(A6, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1">
+      <c r="A7" s="5">
+        <f>CONCATENATE($A$2, $A$1, C7, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B7" s="5">
+        <f>CONCATENATE($A$2, $A$1, C7, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C7" s="5">
+        <f>"AI.AI_Nk"</f>
+        <v/>
+      </c>
+      <c r="D7" s="6">
+        <f>"4"</f>
+        <v/>
+      </c>
+      <c r="E7" s="7">
+        <f>"Частота вращения ротора ЦБК  "</f>
+        <v/>
+      </c>
+      <c r="F7" s="6">
+        <f>CurrAttrValue(B7, 0)</f>
+        <v/>
+      </c>
+      <c r="G7" s="6">
+        <f>CurrAttrValue(A7, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1">
+      <c r="A8" s="5">
+        <f>CONCATENATE($A$2, $A$1, C8, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B8" s="5">
+        <f>CONCATENATE($A$2, $A$1, C8, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C8" s="5">
+        <f>"AI.AI_Nnd2"</f>
+        <v/>
+      </c>
+      <c r="D8" s="6">
+        <f>"5"</f>
+        <v/>
+      </c>
+      <c r="E8" s="7">
+        <f>"Частота вращения ротора НД т.2  "</f>
+        <v/>
+      </c>
+      <c r="F8" s="6">
+        <f>CurrAttrValue(B8, 0)</f>
+        <v/>
+      </c>
+      <c r="G8" s="6">
+        <f>CurrAttrValue(A8, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="5">
+        <f>CONCATENATE($A$2, $A$1, C9, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B9" s="5">
+        <f>CONCATENATE($A$2, $A$1, C9, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C9" s="5">
+        <f>"AI.AI_Nvd2"</f>
+        <v/>
+      </c>
+      <c r="D9" s="6">
+        <f>"6"</f>
+        <v/>
+      </c>
+      <c r="E9" s="7">
+        <f>"Частота вращения ротора ВД т.2  "</f>
+        <v/>
+      </c>
+      <c r="F9" s="6">
+        <f>CurrAttrValue(B9, 0)</f>
+        <v/>
+      </c>
+      <c r="G9" s="6">
+        <f>CurrAttrValue(A9, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="5">
+        <f>CONCATENATE($A$2, $A$1, C10, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B10" s="5">
+        <f>CONCATENATE($A$2, $A$1, C10, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C10" s="5">
+        <f>"AI.AI_Nst2"</f>
+        <v/>
+      </c>
+      <c r="D10" s="6">
+        <f>"7"</f>
+        <v/>
+      </c>
+      <c r="E10" s="7">
+        <f>"Частота вращения ротора СТ т.2  "</f>
+        <v/>
+      </c>
+      <c r="F10" s="6">
+        <f>CurrAttrValue(B10, 0)</f>
+        <v/>
+      </c>
+      <c r="G10" s="6">
+        <f>CurrAttrValue(A10, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="5">
+        <f>CONCATENATE($A$2, $A$1, C11, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B11" s="5">
+        <f>CONCATENATE($A$2, $A$1, C11, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C11" s="5">
+        <f>"AI.AI_Tst1"</f>
+        <v/>
+      </c>
+      <c r="D11" s="6">
+        <f>"8"</f>
+        <v/>
+      </c>
+      <c r="E11" s="7">
+        <f>"Температура газа за ТНД т.1  "</f>
+        <v/>
+      </c>
+      <c r="F11" s="6">
+        <f>CurrAttrValue(B11, 0)</f>
+        <v/>
+      </c>
+      <c r="G11" s="6">
+        <f>CurrAttrValue(A11, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="5">
+        <f>CONCATENATE($A$2, $A$1, C12, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B12" s="5">
+        <f>CONCATENATE($A$2, $A$1, C12, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C12" s="5">
+        <f>"AI.AI_Tst2"</f>
+        <v/>
+      </c>
+      <c r="D12" s="6">
+        <f>"9"</f>
+        <v/>
+      </c>
+      <c r="E12" s="7">
+        <f>"Температура газа за ТНД т.2  "</f>
+        <v/>
+      </c>
+      <c r="F12" s="6">
+        <f>CurrAttrValue(B12, 0)</f>
+        <v/>
+      </c>
+      <c r="G12" s="6">
+        <f>CurrAttrValue(A12, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1">
+      <c r="A13" s="5">
+        <f>CONCATENATE($A$2, $A$1, C13, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B13" s="5">
+        <f>CONCATENATE($A$2, $A$1, C13, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C13" s="5">
+        <f>"AI.AI_Tst3"</f>
+        <v/>
+      </c>
+      <c r="D13" s="6">
+        <f>"10"</f>
+        <v/>
+      </c>
+      <c r="E13" s="7">
+        <f>"Температура газа за ТНД т.3  "</f>
+        <v/>
+      </c>
+      <c r="F13" s="6">
+        <f>CurrAttrValue(B13, 0)</f>
+        <v/>
+      </c>
+      <c r="G13" s="6">
+        <f>CurrAttrValue(A13, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1">
+      <c r="A14" s="5">
+        <f>CONCATENATE($A$2, $A$1, C14, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B14" s="5">
+        <f>CONCATENATE($A$2, $A$1, C14, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C14" s="5">
+        <f>"AI.AI_Tst4"</f>
+        <v/>
+      </c>
+      <c r="D14" s="6">
+        <f>"11"</f>
+        <v/>
+      </c>
+      <c r="E14" s="7">
+        <f>"Температура газа за ТНД т.4  "</f>
+        <v/>
+      </c>
+      <c r="F14" s="6">
+        <f>CurrAttrValue(B14, 0)</f>
+        <v/>
+      </c>
+      <c r="G14" s="6">
+        <f>CurrAttrValue(A14, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1">
+      <c r="A15" s="5">
+        <f>CONCATENATE($A$2, $A$1, C15, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B15" s="5">
+        <f>CONCATENATE($A$2, $A$1, C15, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C15" s="5">
+        <f>"AI.AI_Tst5"</f>
+        <v/>
+      </c>
+      <c r="D15" s="6">
+        <f>"12"</f>
+        <v/>
+      </c>
+      <c r="E15" s="7">
+        <f>"Температура газа за ТНД т.5  "</f>
+        <v/>
+      </c>
+      <c r="F15" s="6">
+        <f>CurrAttrValue(B15, 0)</f>
+        <v/>
+      </c>
+      <c r="G15" s="6">
+        <f>CurrAttrValue(A15, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="5">
+        <f>CONCATENATE($A$2, $A$1, C16, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B16" s="5">
+        <f>CONCATENATE($A$2, $A$1, C16, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C16" s="5">
+        <f>"AI.AI_Tst6"</f>
+        <v/>
+      </c>
+      <c r="D16" s="6">
+        <f>"13"</f>
+        <v/>
+      </c>
+      <c r="E16" s="7">
+        <f>"Температура газа за ТНД т.6  "</f>
+        <v/>
+      </c>
+      <c r="F16" s="6">
+        <f>CurrAttrValue(B16, 0)</f>
+        <v/>
+      </c>
+      <c r="G16" s="6">
+        <f>CurrAttrValue(A16, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="5">
+        <f>CONCATENATE($A$2, $A$1, C17, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B17" s="5">
+        <f>CONCATENATE($A$2, $A$1, C17, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C17" s="5">
+        <f>"AI.AI_Tst7"</f>
+        <v/>
+      </c>
+      <c r="D17" s="6">
+        <f>"14"</f>
+        <v/>
+      </c>
+      <c r="E17" s="7">
+        <f>"Температура газа за ТНД т.7  "</f>
+        <v/>
+      </c>
+      <c r="F17" s="6">
+        <f>CurrAttrValue(B17, 0)</f>
+        <v/>
+      </c>
+      <c r="G17" s="6">
+        <f>CurrAttrValue(A17, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="5">
+        <f>CONCATENATE($A$2, $A$1, C18, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B18" s="5">
+        <f>CONCATENATE($A$2, $A$1, C18, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C18" s="5">
+        <f>"AI.AI_Tst8"</f>
+        <v/>
+      </c>
+      <c r="D18" s="6">
+        <f>"15"</f>
+        <v/>
+      </c>
+      <c r="E18" s="7">
+        <f>"Температура газа за ТНД т.8  "</f>
+        <v/>
+      </c>
+      <c r="F18" s="6">
+        <f>CurrAttrValue(B18, 0)</f>
+        <v/>
+      </c>
+      <c r="G18" s="6">
+        <f>CurrAttrValue(A18, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1">
+      <c r="A19" s="5">
+        <f>CONCATENATE($A$2, $A$1, C19, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B19" s="5">
+        <f>CONCATENATE($A$2, $A$1, C19, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C19" s="5">
+        <f>"AI.AI_Tst_2"</f>
+        <v/>
+      </c>
+      <c r="D19" s="6">
+        <f>"16"</f>
+        <v/>
+      </c>
+      <c r="E19" s="7">
+        <f>"Температура газа за ТНД (общий)  "</f>
+        <v/>
+      </c>
+      <c r="F19" s="6">
+        <f>CurrAttrValue(B19, 0)</f>
+        <v/>
+      </c>
+      <c r="G19" s="6">
+        <f>CurrAttrValue(A19, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1">
+      <c r="A20" s="5">
+        <f>CONCATENATE($A$2, $A$1, C20, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B20" s="5">
+        <f>CONCATENATE($A$2, $A$1, C20, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C20" s="5">
+        <f>"AI.AI_Tg_inN"</f>
+        <v/>
+      </c>
+      <c r="D20" s="6">
+        <f>"17"</f>
+        <v/>
+      </c>
+      <c r="E20" s="7">
+        <f>"Т газа на входе ЦБК  "</f>
+        <v/>
+      </c>
+      <c r="F20" s="6">
+        <f>CurrAttrValue(B20, 0)</f>
+        <v/>
+      </c>
+      <c r="G20" s="6">
+        <f>CurrAttrValue(A20, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1">
+      <c r="A21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B21" s="5">
+        <f>CONCATENATE($A$2, $A$1, C21, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C21" s="5">
+        <f>"AI.AI_Tg_outN"</f>
+        <v/>
+      </c>
+      <c r="D21" s="6">
+        <f>"18"</f>
+        <v/>
+      </c>
+      <c r="E21" s="7">
+        <f>"Т газа на выходе ЦБК  "</f>
+        <v/>
+      </c>
+      <c r="F21" s="6">
+        <f>CurrAttrValue(B21, 0)</f>
+        <v/>
+      </c>
+      <c r="G21" s="6">
+        <f>CurrAttrValue(A21, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="35" customHeight="1">
+      <c r="E24" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F24" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G24" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="40" customHeight="1">
+      <c r="E25" s="1">
+        <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F25" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G25" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1">
+      <c r="D27" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E27" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F27" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G27" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1">
+      <c r="A28" s="5">
+        <f>CONCATENATE($A$2, $A$1, C28, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B28" s="5">
+        <f>CONCATENATE($A$2, $A$1, C28, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C28" s="5">
+        <f>"AI.AI_Tv_inD_1"</f>
+        <v/>
+      </c>
+      <c r="D28" s="6">
+        <f>"19"</f>
+        <v/>
+      </c>
+      <c r="E28" s="7">
+        <f>"Температура воздуха на входе в ГГ т.1  "</f>
+        <v/>
+      </c>
+      <c r="F28" s="6">
+        <f>CurrAttrValue(B28, 0)</f>
+        <v/>
+      </c>
+      <c r="G28" s="6">
+        <f>CurrAttrValue(A28, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1">
+      <c r="A29" s="5">
+        <f>CONCATENATE($A$2, $A$1, C29, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B29" s="5">
+        <f>CONCATENATE($A$2, $A$1, C29, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C29" s="5">
+        <f>"AI.AI_Tv_inD_2"</f>
+        <v/>
+      </c>
+      <c r="D29" s="6">
+        <f>"20"</f>
+        <v/>
+      </c>
+      <c r="E29" s="7">
+        <f>"Температура воздуха на входе в ГГ т.2  "</f>
+        <v/>
+      </c>
+      <c r="F29" s="6">
+        <f>CurrAttrValue(B29, 0)</f>
+        <v/>
+      </c>
+      <c r="G29" s="6">
+        <f>CurrAttrValue(A29, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1">
+      <c r="A30" s="5">
+        <f>CONCATENATE($A$2, $A$1, C30, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B30" s="5">
+        <f>CONCATENATE($A$2, $A$1, C30, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C30" s="5">
+        <f>"AI.AI_Tm_outOV"</f>
+        <v/>
+      </c>
+      <c r="D30" s="6">
+        <f>"21"</f>
+        <v/>
+      </c>
+      <c r="E30" s="7">
+        <f>"Температура масла за откачивающим насосом из опоры вентилятора  "</f>
+        <v/>
+      </c>
+      <c r="F30" s="6">
+        <f>CurrAttrValue(B30, 0)</f>
+        <v/>
+      </c>
+      <c r="G30" s="6">
+        <f>CurrAttrValue(A30, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1">
+      <c r="A31" s="5">
+        <f>CONCATENATE($A$2, $A$1, C31, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B31" s="5">
+        <f>CONCATENATE($A$2, $A$1, C31, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C31" s="5">
+        <f>"AI.AI_Tm_outKPA"</f>
+        <v/>
+      </c>
+      <c r="D31" s="6">
+        <f>"22"</f>
+        <v/>
+      </c>
+      <c r="E31" s="7">
+        <f>"Температура масла за насосом откачки из КПА ГГ  "</f>
+        <v/>
+      </c>
+      <c r="F31" s="6">
+        <f>CurrAttrValue(B31, 0)</f>
+        <v/>
+      </c>
+      <c r="G31" s="6">
+        <f>CurrAttrValue(A31, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1">
+      <c r="A32" s="5">
+        <f>CONCATENATE($A$2, $A$1, C32, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B32" s="5">
+        <f>CONCATENATE($A$2, $A$1, C32, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C32" s="5">
+        <f>"AI.AI_Tm_outOT"</f>
+        <v/>
+      </c>
+      <c r="D32" s="6">
+        <f>"23"</f>
+        <v/>
+      </c>
+      <c r="E32" s="7">
+        <f>"Температура масла на выходе из опоры турбины ГГ  "</f>
+        <v/>
+      </c>
+      <c r="F32" s="6">
+        <f>CurrAttrValue(B32, 0)</f>
+        <v/>
+      </c>
+      <c r="G32" s="6">
+        <f>CurrAttrValue(A32, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1">
+      <c r="A33" s="5">
+        <f>CONCATENATE($A$2, $A$1, C33, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B33" s="5">
+        <f>CONCATENATE($A$2, $A$1, C33, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C33" s="5">
+        <f>"AI.AI_Tg_inSK"</f>
+        <v/>
+      </c>
+      <c r="D33" s="6">
+        <f>"24"</f>
+        <v/>
+      </c>
+      <c r="E33" s="7">
+        <f>"Температура топливного газа перед СК  "</f>
+        <v/>
+      </c>
+      <c r="F33" s="6">
+        <f>CurrAttrValue(B33, 0)</f>
+        <v/>
+      </c>
+      <c r="G33" s="6">
+        <f>CurrAttrValue(A33, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1">
+      <c r="A34" s="5">
+        <f>CONCATENATE($A$2, $A$1, C34, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B34" s="5">
+        <f>CONCATENATE($A$2, $A$1, C34, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C34" s="5">
+        <f>"AI.AI_Tm_outOK"</f>
+        <v/>
+      </c>
+      <c r="D34" s="6">
+        <f>"25"</f>
+        <v/>
+      </c>
+      <c r="E34" s="7">
+        <f>"Температура масла на выходе из опоры компрессора  "</f>
+        <v/>
+      </c>
+      <c r="F34" s="6">
+        <f>CurrAttrValue(B34, 0)</f>
+        <v/>
+      </c>
+      <c r="G34" s="6">
+        <f>CurrAttrValue(A34, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1">
+      <c r="A35" s="5">
+        <f>CONCATENATE($A$2, $A$1, C35, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B35" s="5">
+        <f>CONCATENATE($A$2, $A$1, C35, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C35" s="5">
+        <f>"AI.AI_Tm_outpST"</f>
+        <v/>
+      </c>
+      <c r="D35" s="6">
+        <f>"26"</f>
+        <v/>
+      </c>
+      <c r="E35" s="7">
+        <f>"Температура масла на выходе из передней опоры СТ  "</f>
+        <v/>
+      </c>
+      <c r="F35" s="6">
+        <f>CurrAttrValue(B35, 0)</f>
+        <v/>
+      </c>
+      <c r="G35" s="6">
+        <f>CurrAttrValue(A35, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1">
+      <c r="A36" s="5">
+        <f>CONCATENATE($A$2, $A$1, C36, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B36" s="5">
+        <f>CONCATENATE($A$2, $A$1, C36, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C36" s="5">
+        <f>"AI.AI_Tm_outzST"</f>
+        <v/>
+      </c>
+      <c r="D36" s="6">
+        <f>"27"</f>
+        <v/>
+      </c>
+      <c r="E36" s="7">
+        <f>"Температура масла на выходе из задней опоры СТ  "</f>
+        <v/>
+      </c>
+      <c r="F36" s="6">
+        <f>CurrAttrValue(B36, 0)</f>
+        <v/>
+      </c>
+      <c r="G36" s="6">
+        <f>CurrAttrValue(A36, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1">
+      <c r="A37" s="5">
+        <f>CONCATENATE($A$2, $A$1, C37, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B37" s="5">
+        <f>CONCATENATE($A$2, $A$1, C37, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C37" s="5">
+        <f>"AI.AI_Pmsau_inF17"</f>
+        <v/>
+      </c>
+      <c r="D37" s="6">
+        <f>"28"</f>
+        <v/>
+      </c>
+      <c r="E37" s="7">
+        <f>"Р масла САУ за насосом САУ перед фильтром грубой очистки  "</f>
+        <v/>
+      </c>
+      <c r="F37" s="6">
+        <f>CurrAttrValue(B37, 0)</f>
+        <v/>
+      </c>
+      <c r="G37" s="6">
+        <f>CurrAttrValue(A37, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1">
+      <c r="A38" s="5">
+        <f>CONCATENATE($A$2, $A$1, C38, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B38" s="5">
+        <f>CONCATENATE($A$2, $A$1, C38, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C38" s="5">
+        <f>"AI.AI_Pmsau_inF18"</f>
+        <v/>
+      </c>
+      <c r="D38" s="6">
+        <f>"29"</f>
+        <v/>
+      </c>
+      <c r="E38" s="7">
+        <f>"Р масла САУ перед фильтром тонкой очистки  "</f>
+        <v/>
+      </c>
+      <c r="F38" s="6">
+        <f>CurrAttrValue(B38, 0)</f>
+        <v/>
+      </c>
+      <c r="G38" s="6">
+        <f>CurrAttrValue(A38, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="20" customHeight="1">
+      <c r="A39" s="5">
+        <f>CONCATENATE($A$2, $A$1, C39, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B39" s="5">
+        <f>CONCATENATE($A$2, $A$1, C39, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C39" s="5">
+        <f>"AI.AI_Pmsau_outF18"</f>
+        <v/>
+      </c>
+      <c r="D39" s="6">
+        <f>"30"</f>
+        <v/>
+      </c>
+      <c r="E39" s="7">
+        <f>"Давление масла САУ за фильтром тонкой очистки  "</f>
+        <v/>
+      </c>
+      <c r="F39" s="6">
+        <f>CurrAttrValue(B39, 0)</f>
+        <v/>
+      </c>
+      <c r="G39" s="6">
+        <f>CurrAttrValue(A39, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1">
+      <c r="A40" s="5">
+        <f>CONCATENATE($A$2, $A$1, C40, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B40" s="5">
+        <f>CONCATENATE($A$2, $A$1, C40, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C40" s="5">
+        <f>"AI.AI_Pm_S1"</f>
+        <v/>
+      </c>
+      <c r="D40" s="6">
+        <f>"31"</f>
+        <v/>
+      </c>
+      <c r="E40" s="7">
+        <f>"Р суфлирования опор КНД и КВД перед СЦ ГГ  "</f>
+        <v/>
+      </c>
+      <c r="F40" s="6">
+        <f>CurrAttrValue(B40, 0)</f>
+        <v/>
+      </c>
+      <c r="G40" s="6">
+        <f>CurrAttrValue(A40, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1">
+      <c r="A41" s="5">
+        <f>CONCATENATE($A$2, $A$1, C41, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B41" s="5">
+        <f>CONCATENATE($A$2, $A$1, C41, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C41" s="5">
+        <f>"AI.AI_Pm_S2"</f>
+        <v/>
+      </c>
+      <c r="D41" s="6">
+        <f>"32"</f>
+        <v/>
+      </c>
+      <c r="E41" s="7">
+        <f>"Р суфлирования опоры турбины ГГ перед СЦ ГГ  "</f>
+        <v/>
+      </c>
+      <c r="F41" s="6">
+        <f>CurrAttrValue(B41, 0)</f>
+        <v/>
+      </c>
+      <c r="G41" s="6">
+        <f>CurrAttrValue(A41, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" s="5">
+        <f>CONCATENATE($A$2, $A$1, C42, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B42" s="5">
+        <f>CONCATENATE($A$2, $A$1, C42, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C42" s="5">
+        <f>"AI.AI_Pm_S3"</f>
+        <v/>
+      </c>
+      <c r="D42" s="6">
+        <f>"33"</f>
+        <v/>
+      </c>
+      <c r="E42" s="7">
+        <f>"Р суфлирования опор СТ  "</f>
+        <v/>
+      </c>
+      <c r="F42" s="6">
+        <f>CurrAttrValue(B42, 0)</f>
+        <v/>
+      </c>
+      <c r="G42" s="6">
+        <f>CurrAttrValue(A42, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="20" customHeight="1">
+      <c r="A43" s="5">
+        <f>CONCATENATE($A$2, $A$1, C43, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B43" s="5">
+        <f>CONCATENATE($A$2, $A$1, C43, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C43" s="5">
+        <f>"AI.AI_Pv_outK_1"</f>
+        <v/>
+      </c>
+      <c r="D43" s="6">
+        <f>"34"</f>
+        <v/>
+      </c>
+      <c r="E43" s="7">
+        <f>"Давление воздуха за компрессором т.1  "</f>
+        <v/>
+      </c>
+      <c r="F43" s="6">
+        <f>CurrAttrValue(B43, 0)</f>
+        <v/>
+      </c>
+      <c r="G43" s="6">
+        <f>CurrAttrValue(A43, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1">
+      <c r="A44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B44" s="5">
+        <f>CONCATENATE($A$2, $A$1, C44, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C44" s="5">
+        <f>"AI.AI_Pv_outK_2"</f>
+        <v/>
+      </c>
+      <c r="D44" s="6">
+        <f>"35"</f>
+        <v/>
+      </c>
+      <c r="E44" s="7">
+        <f>"Давление воздуха за компрессором т.2  "</f>
+        <v/>
+      </c>
+      <c r="F44" s="6">
+        <f>CurrAttrValue(B44, 0)</f>
+        <v/>
+      </c>
+      <c r="G44" s="6">
+        <f>CurrAttrValue(A44, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1">
+      <c r="A45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B45" s="5">
+        <f>CONCATENATE($A$2, $A$1, C45, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C45" s="5">
+        <f>"AI.AI_Ptg_inDG"</f>
+        <v/>
+      </c>
+      <c r="D45" s="6">
+        <f>"36"</f>
+        <v/>
+      </c>
+      <c r="E45" s="7">
+        <f>"Давление топливного газа перед ТРК  "</f>
+        <v/>
+      </c>
+      <c r="F45" s="6">
+        <f>CurrAttrValue(B45, 0)</f>
+        <v/>
+      </c>
+      <c r="G45" s="6">
+        <f>CurrAttrValue(A45, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="35" customHeight="1">
+      <c r="E48" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F48" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G48" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="40" customHeight="1">
+      <c r="E49" s="1">
+        <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F49" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G49" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="20" customHeight="1">
+      <c r="D51" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E51" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F51" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G51" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1">
+      <c r="A52" s="5">
+        <f>CONCATENATE($A$2, $A$1, C52, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B52" s="5">
+        <f>CONCATENATE($A$2, $A$1, C52, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C52" s="5">
+        <f>"AI.AI_Ptg_inSK"</f>
+        <v/>
+      </c>
+      <c r="D52" s="6">
+        <f>"37"</f>
+        <v/>
+      </c>
+      <c r="E52" s="7">
+        <f>"Давление топливного газа перед СК  "</f>
+        <v/>
+      </c>
+      <c r="F52" s="6">
+        <f>CurrAttrValue(B52, 0)</f>
+        <v/>
+      </c>
+      <c r="G52" s="6">
+        <f>CurrAttrValue(A52, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" ht="20" customHeight="1">
+      <c r="A53" s="5">
+        <f>CONCATENATE($A$2, $A$1, C53, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B53" s="5">
+        <f>CONCATENATE($A$2, $A$1, C53, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C53" s="5">
+        <f>"AI.AI_DG_POS"</f>
+        <v/>
+      </c>
+      <c r="D53" s="6">
+        <f>"38"</f>
+        <v/>
+      </c>
+      <c r="E53" s="7">
+        <f>"Положение дозатора газа  "</f>
+        <v/>
+      </c>
+      <c r="F53" s="6">
+        <f>CurrAttrValue(B53, 0)</f>
+        <v/>
+      </c>
+      <c r="G53" s="6">
+        <f>CurrAttrValue(A53, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="20" customHeight="1">
+      <c r="A54" s="5">
+        <f>CONCATENATE($A$2, $A$1, C54, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B54" s="5">
+        <f>CONCATENATE($A$2, $A$1, C54, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C54" s="5">
+        <f>"AI.AI_Pg_outN"</f>
+        <v/>
+      </c>
+      <c r="D54" s="6">
+        <f>"39"</f>
+        <v/>
+      </c>
+      <c r="E54" s="7">
+        <f>"Давление газа на выходе ЦБК  "</f>
+        <v/>
+      </c>
+      <c r="F54" s="6">
+        <f>CurrAttrValue(B54, 0)</f>
+        <v/>
+      </c>
+      <c r="G54" s="6">
+        <f>CurrAttrValue(A54, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="20" customHeight="1">
+      <c r="A55" s="5">
+        <f>CONCATENATE($A$2, $A$1, C55, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B55" s="5">
+        <f>CONCATENATE($A$2, $A$1, C55, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C55" s="5">
+        <f>"AI.AI_dP_Conf"</f>
+        <v/>
+      </c>
+      <c r="D55" s="6">
+        <f>"40"</f>
+        <v/>
+      </c>
+      <c r="E55" s="7">
+        <f>"dP газа на конфузоре нагнетателя  "</f>
+        <v/>
+      </c>
+      <c r="F55" s="6">
+        <f>CurrAttrValue(B55, 0)</f>
+        <v/>
+      </c>
+      <c r="G55" s="6">
+        <f>CurrAttrValue(A55, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1">
+      <c r="A56" s="5">
+        <f>CONCATENATE($A$2, $A$1, C56, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B56" s="5">
+        <f>CONCATENATE($A$2, $A$1, C56, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C56" s="5">
+        <f>"AI.AI_APK_POS"</f>
+        <v/>
+      </c>
+      <c r="D56" s="6">
+        <f>"41"</f>
+        <v/>
+      </c>
+      <c r="E56" s="7">
+        <f>"Положение крана № 6р (АПК)  "</f>
+        <v/>
+      </c>
+      <c r="F56" s="6">
+        <f>CurrAttrValue(B56, 0)</f>
+        <v/>
+      </c>
+      <c r="G56" s="6">
+        <f>CurrAttrValue(A56, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="20" customHeight="1">
+      <c r="A57" s="5">
+        <f>CONCATENATE($A$2, $A$1, C57, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B57" s="5">
+        <f>CONCATENATE($A$2, $A$1, C57, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C57" s="5">
+        <f>"AI.AI_Vkgg"</f>
+        <v/>
+      </c>
+      <c r="D57" s="6">
+        <f>"42"</f>
+        <v/>
+      </c>
+      <c r="E57" s="7">
+        <f>"Вибрация промежуточного корпуса ГГ (гориз.)  "</f>
+        <v/>
+      </c>
+      <c r="F57" s="6">
+        <f>CurrAttrValue(B57, 0)</f>
+        <v/>
+      </c>
+      <c r="G57" s="6">
+        <f>CurrAttrValue(A57, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" ht="20" customHeight="1">
+      <c r="A58" s="5">
+        <f>CONCATENATE($A$2, $A$1, C58, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B58" s="5">
+        <f>CONCATENATE($A$2, $A$1, C58, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C58" s="5">
+        <f>"AI.AI_Vkst"</f>
+        <v/>
+      </c>
+      <c r="D58" s="6">
+        <f>"43"</f>
+        <v/>
+      </c>
+      <c r="E58" s="7">
+        <f>"Вибрация корпуса СТ  "</f>
+        <v/>
+      </c>
+      <c r="F58" s="6">
+        <f>CurrAttrValue(B58, 0)</f>
+        <v/>
+      </c>
+      <c r="G58" s="6">
+        <f>CurrAttrValue(A58, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1">
+      <c r="A59" s="5">
+        <f>CONCATENATE($A$2, $A$1, C59, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B59" s="5">
+        <f>CONCATENATE($A$2, $A$1, C59, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C59" s="5">
+        <f>"AI.AI_NA_Icos"</f>
+        <v/>
+      </c>
+      <c r="D59" s="6">
+        <f>"44"</f>
+        <v/>
+      </c>
+      <c r="E59" s="7">
+        <f>"Положение лопаток НА КВД (Cos)  "</f>
+        <v/>
+      </c>
+      <c r="F59" s="6">
+        <f>CurrAttrValue(B59, 0)</f>
+        <v/>
+      </c>
+      <c r="G59" s="6">
+        <f>CurrAttrValue(A59, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1">
+      <c r="A60" s="5">
+        <f>CONCATENATE($A$2, $A$1, C60, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B60" s="5">
+        <f>CONCATENATE($A$2, $A$1, C60, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C60" s="5">
+        <f>"AI.AI_NA_Isin"</f>
+        <v/>
+      </c>
+      <c r="D60" s="6">
+        <f>"45"</f>
+        <v/>
+      </c>
+      <c r="E60" s="7">
+        <f>"Положение лопаток НА КВД (Sin)  "</f>
+        <v/>
+      </c>
+      <c r="F60" s="6">
+        <f>CurrAttrValue(B60, 0)</f>
+        <v/>
+      </c>
+      <c r="G60" s="6">
+        <f>CurrAttrValue(A60, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" ht="20" customHeight="1">
+      <c r="A61" s="5">
+        <f>CONCATENATE($A$2, $A$1, C61, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B61" s="5">
+        <f>CONCATENATE($A$2, $A$1, C61, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C61" s="5">
+        <f>"AI.AI_RA_Icos"</f>
+        <v/>
+      </c>
+      <c r="D61" s="6">
+        <f>"46"</f>
+        <v/>
+      </c>
+      <c r="E61" s="7">
+        <f>"Положение РВНА за КНД (Cos)  "</f>
+        <v/>
+      </c>
+      <c r="F61" s="6">
+        <f>CurrAttrValue(B61, 0)</f>
+        <v/>
+      </c>
+      <c r="G61" s="6">
+        <f>CurrAttrValue(A61, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" ht="20" customHeight="1">
+      <c r="A62" s="5">
+        <f>CONCATENATE($A$2, $A$1, C62, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B62" s="5">
+        <f>CONCATENATE($A$2, $A$1, C62, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C62" s="5">
+        <f>"AI.AI_RA_Isin"</f>
+        <v/>
+      </c>
+      <c r="D62" s="6">
+        <f>"47"</f>
+        <v/>
+      </c>
+      <c r="E62" s="7">
+        <f>"Положение РВНА за КНД (Sin)  "</f>
+        <v/>
+      </c>
+      <c r="F62" s="6">
+        <f>CurrAttrValue(B62, 0)</f>
+        <v/>
+      </c>
+      <c r="G62" s="6">
+        <f>CurrAttrValue(A62, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" ht="20" customHeight="1">
+      <c r="A63" s="5">
+        <f>CONCATENATE($A$2, $A$1, C63, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B63" s="5">
+        <f>CONCATENATE($A$2, $A$1, C63, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C63" s="5">
+        <f>"AI.AI_Tv_outKSHT1"</f>
+        <v/>
+      </c>
+      <c r="D63" s="6">
+        <f>"48"</f>
+        <v/>
+      </c>
+      <c r="E63" s="7">
+        <f>"Т воздуха 1 в сбросном воздуховоде ТБ  "</f>
+        <v/>
+      </c>
+      <c r="F63" s="6">
+        <f>CurrAttrValue(B63, 0)</f>
+        <v/>
+      </c>
+      <c r="G63" s="6">
+        <f>CurrAttrValue(A63, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" ht="20" customHeight="1">
+      <c r="A64" s="5">
+        <f>CONCATENATE($A$2, $A$1, C64, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B64" s="5">
+        <f>CONCATENATE($A$2, $A$1, C64, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C64" s="5">
+        <f>"AI.AI_Tv_outKSHT2"</f>
+        <v/>
+      </c>
+      <c r="D64" s="6">
+        <f>"49"</f>
+        <v/>
+      </c>
+      <c r="E64" s="7">
+        <f>"Т воздуха 2 в сбросном воздуховоде ТБ  "</f>
+        <v/>
+      </c>
+      <c r="F64" s="6">
+        <f>CurrAttrValue(B64, 0)</f>
+        <v/>
+      </c>
+      <c r="G64" s="6">
+        <f>CurrAttrValue(A64, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" ht="20" customHeight="1">
+      <c r="A65" s="5">
+        <f>CONCATENATE($A$2, $A$1, C65, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B65" s="5">
+        <f>CONCATENATE($A$2, $A$1, C65, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C65" s="5">
+        <f>"AI.AI_Tv_ang1"</f>
+        <v/>
+      </c>
+      <c r="D65" s="6">
+        <f>"50"</f>
+        <v/>
+      </c>
+      <c r="E65" s="7">
+        <f>"Температура воздуха в ангаре (точка 1)  "</f>
+        <v/>
+      </c>
+      <c r="F65" s="6">
+        <f>CurrAttrValue(B65, 0)</f>
+        <v/>
+      </c>
+      <c r="G65" s="6">
+        <f>CurrAttrValue(A65, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" ht="20" customHeight="1">
+      <c r="A66" s="5">
+        <f>CONCATENATE($A$2, $A$1, C66, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B66" s="5">
+        <f>CONCATENATE($A$2, $A$1, C66, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C66" s="5">
+        <f>"AI.AI_Tv_ang2"</f>
+        <v/>
+      </c>
+      <c r="D66" s="6">
+        <f>"51"</f>
+        <v/>
+      </c>
+      <c r="E66" s="7">
+        <f>"Температура воздуха в ангаре (точка 2)  "</f>
+        <v/>
+      </c>
+      <c r="F66" s="6">
+        <f>CurrAttrValue(B66, 0)</f>
+        <v/>
+      </c>
+      <c r="G66" s="6">
+        <f>CurrAttrValue(A66, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" ht="20" customHeight="1">
+      <c r="A67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B67" s="5">
+        <f>CONCATENATE($A$2, $A$1, C67, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C67" s="5">
+        <f>"AI.AI_Tv_oSAU"</f>
+        <v/>
+      </c>
+      <c r="D67" s="6">
+        <f>"52"</f>
+        <v/>
+      </c>
+      <c r="E67" s="7">
+        <f>"Температура воздуха в блоке САУ  "</f>
+        <v/>
+      </c>
+      <c r="F67" s="6">
+        <f>CurrAttrValue(B67, 0)</f>
+        <v/>
+      </c>
+      <c r="G67" s="6">
+        <f>CurrAttrValue(A67, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" ht="20" customHeight="1">
+      <c r="A68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B68" s="5">
+        <f>CONCATENATE($A$2, $A$1, C68, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C68" s="5">
+        <f>"AI.AI_Tv_oBET"</f>
+        <v/>
+      </c>
+      <c r="D68" s="6">
+        <f>"53"</f>
+        <v/>
+      </c>
+      <c r="E68" s="7">
+        <f>"Температура воздуха в БЭТ  "</f>
+        <v/>
+      </c>
+      <c r="F68" s="6">
+        <f>CurrAttrValue(B68, 0)</f>
+        <v/>
+      </c>
+      <c r="G68" s="6">
+        <f>CurrAttrValue(A68, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" ht="20" customHeight="1">
+      <c r="A69" s="5">
+        <f>CONCATENATE($A$2, $A$1, C69, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B69" s="5">
+        <f>CONCATENATE($A$2, $A$1, C69, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C69" s="5">
+        <f>"AI.AI_Ta_VOT"</f>
+        <v/>
+      </c>
+      <c r="D69" s="6">
+        <f>"54"</f>
+        <v/>
+      </c>
+      <c r="E69" s="7">
+        <f>"Температура воздуха под кожухом трансмиссии  "</f>
+        <v/>
+      </c>
+      <c r="F69" s="6">
+        <f>CurrAttrValue(B69, 0)</f>
+        <v/>
+      </c>
+      <c r="G69" s="6">
+        <f>CurrAttrValue(A69, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" ht="35" customHeight="1">
+      <c r="E72" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F72" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G72" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" ht="40" customHeight="1">
+      <c r="E73" s="1">
+        <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F73" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G73" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" ht="20" customHeight="1">
+      <c r="D75" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E75" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F75" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G75" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" ht="20" customHeight="1">
+      <c r="A76" s="5">
+        <f>CONCATENATE($A$2, $A$1, C76, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B76" s="5">
+        <f>CONCATENATE($A$2, $A$1, C76, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C76" s="5">
+        <f>"AI.AI_Tmbd"</f>
+        <v/>
+      </c>
+      <c r="D76" s="6">
+        <f>"55"</f>
+        <v/>
+      </c>
+      <c r="E76" s="7">
+        <f>"Температура масла в МБД  "</f>
+        <v/>
+      </c>
+      <c r="F76" s="6">
+        <f>CurrAttrValue(B76, 0)</f>
+        <v/>
+      </c>
+      <c r="G76" s="6">
+        <f>CurrAttrValue(A76, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1">
+      <c r="A77" s="5">
+        <f>CONCATENATE($A$2, $A$1, C77, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B77" s="5">
+        <f>CONCATENATE($A$2, $A$1, C77, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C77" s="5">
+        <f>"AI.AI_Tm_inGTU"</f>
+        <v/>
+      </c>
+      <c r="D77" s="6">
+        <f>"56"</f>
+        <v/>
+      </c>
+      <c r="E77" s="7">
+        <f>"Температура масла на входе в ГТД за фильтром  "</f>
+        <v/>
+      </c>
+      <c r="F77" s="6">
+        <f>CurrAttrValue(B77, 0)</f>
+        <v/>
+      </c>
+      <c r="G77" s="6">
+        <f>CurrAttrValue(A77, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1">
+      <c r="A78" s="5">
+        <f>CONCATENATE($A$2, $A$1, C78, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B78" s="5">
+        <f>CONCATENATE($A$2, $A$1, C78, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C78" s="5">
+        <f>"AI.AI_Tm_outAVOMD"</f>
+        <v/>
+      </c>
+      <c r="D78" s="6">
+        <f>"57"</f>
+        <v/>
+      </c>
+      <c r="E78" s="7">
+        <f>"Температура масла на выходе из АВОМ ГТД  "</f>
+        <v/>
+      </c>
+      <c r="F78" s="6">
+        <f>CurrAttrValue(B78, 0)</f>
+        <v/>
+      </c>
+      <c r="G78" s="6">
+        <f>CurrAttrValue(A78, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1">
+      <c r="A79" s="5">
+        <f>CONCATENATE($A$2, $A$1, C79, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B79" s="5">
+        <f>CONCATENATE($A$2, $A$1, C79, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C79" s="5">
+        <f>"AI.AI_Tm_OO"</f>
+        <v/>
+      </c>
+      <c r="D79" s="6">
+        <f>"58"</f>
+        <v/>
+      </c>
+      <c r="E79" s="7">
+        <f>"Температура масла в магистрали общей откачки  "</f>
+        <v/>
+      </c>
+      <c r="F79" s="6">
+        <f>CurrAttrValue(B79, 0)</f>
+        <v/>
+      </c>
+      <c r="G79" s="6">
+        <f>CurrAttrValue(A79, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1">
+      <c r="A80" s="5">
+        <f>CONCATENATE($A$2, $A$1, C80, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B80" s="5">
+        <f>CONCATENATE($A$2, $A$1, C80, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C80" s="5">
+        <f>"AI.AI_Tmsn"</f>
+        <v/>
+      </c>
+      <c r="D80" s="6">
+        <f>"59"</f>
+        <v/>
+      </c>
+      <c r="E80" s="7">
+        <f>"Температура масла на входе в компрессор  "</f>
+        <v/>
+      </c>
+      <c r="F80" s="6">
+        <f>CurrAttrValue(B80, 0)</f>
+        <v/>
+      </c>
+      <c r="G80" s="6">
+        <f>CurrAttrValue(A80, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1">
+      <c r="A81" s="5">
+        <f>CONCATENATE($A$2, $A$1, C81, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B81" s="5">
+        <f>CONCATENATE($A$2, $A$1, C81, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C81" s="5">
+        <f>"AI.AI_Tmbn"</f>
+        <v/>
+      </c>
+      <c r="D81" s="6">
+        <f>"60"</f>
+        <v/>
+      </c>
+      <c r="E81" s="7">
+        <f>"Температура масла в МБК  "</f>
+        <v/>
+      </c>
+      <c r="F81" s="6">
+        <f>CurrAttrValue(B81, 0)</f>
+        <v/>
+      </c>
+      <c r="G81" s="6">
+        <f>CurrAttrValue(A81, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1">
+      <c r="A82" s="5">
+        <f>CONCATENATE($A$2, $A$1, C82, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B82" s="5">
+        <f>CONCATENATE($A$2, $A$1, C82, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C82" s="5">
+        <f>"AI.AI_Tv_KTS"</f>
+        <v/>
+      </c>
+      <c r="D82" s="6">
+        <f>"61"</f>
+        <v/>
+      </c>
+      <c r="E82" s="7">
+        <f>"Температура воздуха в КШТ  "</f>
+        <v/>
+      </c>
+      <c r="F82" s="6">
+        <f>CurrAttrValue(B82, 0)</f>
+        <v/>
+      </c>
+      <c r="G82" s="6">
+        <f>CurrAttrValue(A82, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="83" ht="20" customHeight="1">
       <c r="A83" s="5">
         <f>CONCATENATE($A$2, $A$1, C83, $B$2)</f>
@@ -535,15 +2503,15 @@
         <v/>
       </c>
       <c r="C83" s="5">
-        <f>"AI.AI_Nvd1"</f>
+        <f>"AI.AI_Ta_outAT2001"</f>
         <v/>
       </c>
       <c r="D83" s="6">
-        <f>"60"</f>
+        <f>"62"</f>
         <v/>
       </c>
       <c r="E83" s="7">
-        <f>"Частота вращения ротора ТК (канал 1)  "</f>
+        <f>"Т воздуха после ТОА АТ2001  "</f>
         <v/>
       </c>
       <c r="F83" s="6">
@@ -565,15 +2533,15 @@
         <v/>
       </c>
       <c r="C84" s="5">
-        <f>"AI.AI_Nst1"</f>
+        <f>"AI.AI_Ta_outEnBVP"</f>
         <v/>
       </c>
       <c r="D84" s="6">
-        <f>"61"</f>
+        <f>"63"</f>
         <v/>
       </c>
       <c r="E84" s="7">
-        <f>"Частота вращения СТ (т.1)  "</f>
+        <f>"Т воздуха после Эн. в БПВ  "</f>
         <v/>
       </c>
       <c r="F84" s="6">
@@ -595,15 +2563,15 @@
         <v/>
       </c>
       <c r="C85" s="5">
-        <f>"AI.AI_Nvd2"</f>
+        <f>"AI.AI_TaBVP"</f>
         <v/>
       </c>
       <c r="D85" s="6">
-        <f>"62"</f>
+        <f>"64"</f>
         <v/>
       </c>
       <c r="E85" s="7">
-        <f>"Частота вращения ротора ТК (канал 2)  "</f>
+        <f>"Т воздуха в блоке подготовки воздуха  "</f>
         <v/>
       </c>
       <c r="F85" s="6">
@@ -625,15 +2593,15 @@
         <v/>
       </c>
       <c r="C86" s="5">
-        <f>"AI.AI_Nst2"</f>
+        <f>"AI.AI_T_vOP"</f>
         <v/>
       </c>
       <c r="D86" s="6">
-        <f>"63"</f>
+        <f>"65"</f>
         <v/>
       </c>
       <c r="E86" s="7">
-        <f>"Частота вращения СТ (т.2)  "</f>
+        <f>"Температура вкладыша опорного подшипника ЦБК  "</f>
         <v/>
       </c>
       <c r="F86" s="6">
@@ -655,15 +2623,15 @@
         <v/>
       </c>
       <c r="C87" s="5">
-        <f>"AI.AI_Nstarter"</f>
+        <f>"AI.AI_T_vOUP"</f>
         <v/>
       </c>
       <c r="D87" s="6">
-        <f>"64"</f>
+        <f>"66"</f>
         <v/>
       </c>
       <c r="E87" s="7">
-        <f>"Обороты ВС  "</f>
+        <f>"Температура вкладыша опорно-упорного подшипника ЦБК  "</f>
         <v/>
       </c>
       <c r="F87" s="6">
@@ -685,15 +2653,15 @@
         <v/>
       </c>
       <c r="C88" s="5">
-        <f>"AI.AI_TinN"</f>
+        <f>"AI.AI_T_rkOUP"</f>
         <v/>
       </c>
       <c r="D88" s="6">
-        <f>"65"</f>
+        <f>"67"</f>
         <v/>
       </c>
       <c r="E88" s="7">
-        <f>"Т газа на входе Н  "</f>
+        <f>"Температура рабочих колодок опорно-упорного подшипника ЦБК  "</f>
         <v/>
       </c>
       <c r="F88" s="6">
@@ -715,15 +2683,15 @@
         <v/>
       </c>
       <c r="C89" s="5">
-        <f>"AI.AI_Tst1"</f>
+        <f>"AI.AI_T_ukOUP"</f>
         <v/>
       </c>
       <c r="D89" s="6">
-        <f>"66"</f>
+        <f>"68"</f>
         <v/>
       </c>
       <c r="E89" s="7">
-        <f>"Т газов до СТ (т.1)  "</f>
+        <f>"Температура установочных колодок опорно-упорного подшипника ЦБК  "</f>
         <v/>
       </c>
       <c r="F89" s="6">
@@ -745,15 +2713,15 @@
         <v/>
       </c>
       <c r="C90" s="5">
-        <f>"AI.AI_Tst2"</f>
+        <f>"AI.AI_U1"</f>
         <v/>
       </c>
       <c r="D90" s="6">
-        <f>"67"</f>
+        <f>"69"</f>
         <v/>
       </c>
       <c r="E90" s="7">
-        <f>"Т газов до СТ (т.2)  "</f>
+        <f>"Напряжения основного питания САУ ~220В  "</f>
         <v/>
       </c>
       <c r="F90" s="6">
@@ -775,15 +2743,15 @@
         <v/>
       </c>
       <c r="C91" s="5">
-        <f>"AI.AI_Tst3"</f>
+        <f>"AI.AI_U2"</f>
         <v/>
       </c>
       <c r="D91" s="6">
-        <f>"68"</f>
+        <f>"70"</f>
         <v/>
       </c>
       <c r="E91" s="7">
-        <f>"Т газов до СТ (т.3)  "</f>
+        <f>"Напряжения основного питания БЭО ~220В  "</f>
         <v/>
       </c>
       <c r="F91" s="6">
@@ -805,15 +2773,15 @@
         <v/>
       </c>
       <c r="C92" s="5">
-        <f>"AI.AI_Tst4"</f>
+        <f>"AI.AI_U3"</f>
         <v/>
       </c>
       <c r="D92" s="6">
-        <f>"69"</f>
+        <f>"71"</f>
         <v/>
       </c>
       <c r="E92" s="7">
-        <f>"Т газов до СТ (т.4)  "</f>
+        <f>"Напряжения резервного питания САУ =220В  "</f>
         <v/>
       </c>
       <c r="F92" s="6">
@@ -835,15 +2803,15 @@
         <v/>
       </c>
       <c r="C93" s="5">
-        <f>"AI.AI_Tst5"</f>
+        <f>"AI.AI_U4"</f>
         <v/>
       </c>
       <c r="D93" s="6">
-        <f>"70"</f>
+        <f>"72"</f>
         <v/>
       </c>
       <c r="E93" s="7">
-        <f>"Т газов до СТ (т.5)  "</f>
+        <f>"Напряжения резервного питания БЭО =220В  "</f>
         <v/>
       </c>
       <c r="F93" s="6">
@@ -855,109 +2823,109 @@
         <v/>
       </c>
     </row>
-    <row r="94" ht="20" customHeight="1">
-      <c r="A94" s="5">
-        <f>CONCATENATE($A$2, $A$1, C94, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B94" s="5">
-        <f>CONCATENATE($A$2, $A$1, C94, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C94" s="5">
-        <f>"AI.AI_Tst6"</f>
-        <v/>
-      </c>
-      <c r="D94" s="6">
-        <f>"71"</f>
-        <v/>
-      </c>
-      <c r="E94" s="7">
-        <f>"Т газов до СТ (т.6)  "</f>
-        <v/>
-      </c>
-      <c r="F94" s="6">
-        <f>CurrAttrValue(B94, 0)</f>
-        <v/>
-      </c>
-      <c r="G94" s="6">
-        <f>CurrAttrValue(A94, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="95" ht="20" customHeight="1">
-      <c r="A95" s="5">
-        <f>CONCATENATE($A$2, $A$1, C95, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B95" s="5">
-        <f>CONCATENATE($A$2, $A$1, C95, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C95" s="5">
-        <f>"AI.AI_Tvd"</f>
-        <v/>
-      </c>
-      <c r="D95" s="6">
-        <f>"72"</f>
-        <v/>
-      </c>
-      <c r="E95" s="7">
-        <f>"Т воздуха на входе в ОК  "</f>
-        <v/>
-      </c>
-      <c r="F95" s="6">
-        <f>CurrAttrValue(B95, 0)</f>
-        <v/>
-      </c>
-      <c r="G95" s="6">
-        <f>CurrAttrValue(A95, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="98" ht="35" customHeight="1">
-      <c r="E98" s="8">
+    <row r="96" ht="35" customHeight="1">
+      <c r="E96" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F98" s="8">
+      <c r="F96" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G98" s="8">
+      <c r="G96" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="99" ht="40" customHeight="1">
-      <c r="E99" s="1">
+    <row r="97" ht="40" customHeight="1">
+      <c r="E97" s="1">
         <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
         <v/>
       </c>
-      <c r="F99" s="2">
+      <c r="F97" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G99" s="3">
+      <c r="G97" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
+    <row r="99" ht="20" customHeight="1">
+      <c r="D99" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E99" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F99" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G99" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" ht="20" customHeight="1">
+      <c r="A100" s="5">
+        <f>CONCATENATE($A$2, $A$1, C100, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B100" s="5">
+        <f>CONCATENATE($A$2, $A$1, C100, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C100" s="5">
+        <f>"AI.AI_U5"</f>
+        <v/>
+      </c>
+      <c r="D100" s="6">
+        <f>"73"</f>
+        <v/>
+      </c>
+      <c r="E100" s="7">
+        <f>"Напряжения питания на крановой обвяке ГПА =220В  "</f>
+        <v/>
+      </c>
+      <c r="F100" s="6">
+        <f>CurrAttrValue(B100, 0)</f>
+        <v/>
+      </c>
+      <c r="G100" s="6">
+        <f>CurrAttrValue(A100, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="101" ht="20" customHeight="1">
-      <c r="D101" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E101" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F101" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G101" s="4">
-        <f>"Ед. изм"</f>
+      <c r="A101" s="5">
+        <f>CONCATENATE($A$2, $A$1, C101, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B101" s="5">
+        <f>CONCATENATE($A$2, $A$1, C101, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C101" s="5">
+        <f>"AI.AI_T_SHK1"</f>
+        <v/>
+      </c>
+      <c r="D101" s="6">
+        <f>"74"</f>
+        <v/>
+      </c>
+      <c r="E101" s="7">
+        <f>"Температура воздуха в шкафу №1 САУ ГПА  "</f>
+        <v/>
+      </c>
+      <c r="F101" s="6">
+        <f>CurrAttrValue(B101, 0)</f>
+        <v/>
+      </c>
+      <c r="G101" s="6">
+        <f>CurrAttrValue(A101, 0)</f>
         <v/>
       </c>
     </row>
@@ -971,15 +2939,15 @@
         <v/>
       </c>
       <c r="C102" s="5">
-        <f>"AI.AI_dPconf"</f>
+        <f>"AI.AI_T_SHK2"</f>
         <v/>
       </c>
       <c r="D102" s="6">
-        <f>"73"</f>
+        <f>"75"</f>
         <v/>
       </c>
       <c r="E102" s="7">
-        <f>"dP на конфузоре Н  "</f>
+        <f>"Температура воздуха в шкафу №2 САУ ГПА  "</f>
         <v/>
       </c>
       <c r="F102" s="6">
@@ -1001,15 +2969,15 @@
         <v/>
       </c>
       <c r="C103" s="5">
-        <f>"AI.AI_PoutN"</f>
+        <f>"AI.AI_T_SHK3"</f>
         <v/>
       </c>
       <c r="D103" s="6">
-        <f>"74"</f>
+        <f>"76"</f>
         <v/>
       </c>
       <c r="E103" s="7">
-        <f>"P газа на выходе Н  "</f>
+        <f>"Температура воздуха в шкафу №3 САУ ГПА  "</f>
         <v/>
       </c>
       <c r="F103" s="6">
@@ -1031,15 +2999,15 @@
         <v/>
       </c>
       <c r="C104" s="5">
-        <f>"AI.AI_DG_POS"</f>
+        <f>"AI.AI_Vlag"</f>
         <v/>
       </c>
       <c r="D104" s="6">
-        <f>"75"</f>
+        <f>"77"</f>
         <v/>
       </c>
       <c r="E104" s="7">
-        <f>"Положение дозатора газа  "</f>
+        <f>"Относительная влажность наружного воздуха  "</f>
         <v/>
       </c>
       <c r="F104" s="6">
@@ -1061,15 +3029,15 @@
         <v/>
       </c>
       <c r="C105" s="5">
-        <f>"AI.AI_POS_APK"</f>
+        <f>"AI.AI_dP_ksht"</f>
         <v/>
       </c>
       <c r="D105" s="6">
-        <f>"76"</f>
+        <f>"78"</f>
         <v/>
       </c>
       <c r="E105" s="7">
-        <f>"Положение АПК  "</f>
+        <f>"Перепад давления воздуха в КШТ  "</f>
         <v/>
       </c>
       <c r="F105" s="6">
@@ -1091,15 +3059,15 @@
         <v/>
       </c>
       <c r="C106" s="5">
-        <f>"AI.AI_Pkd"</f>
+        <f>"AI.AI_Pm_OO"</f>
         <v/>
       </c>
       <c r="D106" s="6">
-        <f>"77"</f>
+        <f>"79"</f>
         <v/>
       </c>
       <c r="E106" s="7">
-        <f>"Р воздуха за ОК  "</f>
+        <f>"Давление масла в магистрали общей откачки  "</f>
         <v/>
       </c>
       <c r="F106" s="6">
@@ -1121,15 +3089,15 @@
         <v/>
       </c>
       <c r="C107" s="5">
-        <f>"AI.AI_Ptg"</f>
+        <f>"AI.AI_TGM_POS"</f>
         <v/>
       </c>
       <c r="D107" s="6">
-        <f>"78"</f>
+        <f>"80"</f>
         <v/>
       </c>
       <c r="E107" s="7">
-        <f>"P топливного газа перед ТРК  "</f>
+        <f>"Положение крана ТГМ (байпас масла)  "</f>
         <v/>
       </c>
       <c r="F107" s="6">
@@ -1151,15 +3119,15 @@
         <v/>
       </c>
       <c r="C108" s="5">
-        <f>"AI.AI_ToutN"</f>
+        <f>"AI.AI_Pv_fromGTU"</f>
         <v/>
       </c>
       <c r="D108" s="6">
-        <f>"79"</f>
+        <f>"81"</f>
         <v/>
       </c>
       <c r="E108" s="7">
-        <f>"Т газа на выходе Н  "</f>
+        <f>"Давление воздуха отбора от ГТУ  "</f>
         <v/>
       </c>
       <c r="F108" s="6">
@@ -1181,15 +3149,15 @@
         <v/>
       </c>
       <c r="C109" s="5">
-        <f>"AI.AI_Ttg"</f>
+        <f>"AI.AI_dPv_VOU"</f>
         <v/>
       </c>
       <c r="D109" s="6">
-        <f>"80"</f>
+        <f>"82"</f>
         <v/>
       </c>
       <c r="E109" s="7">
-        <f>"Температура ТГ на входе в ГТД до МШ  "</f>
+        <f>"Перепад давления воздуха на фильтрах ВОУ  "</f>
         <v/>
       </c>
       <c r="F109" s="6">
@@ -1211,15 +3179,15 @@
         <v/>
       </c>
       <c r="C110" s="5">
-        <f>"AI.AI_Tm_MBD"</f>
+        <f>"AI.AI_dPbftg"</f>
         <v/>
       </c>
       <c r="D110" s="6">
-        <f>"81"</f>
+        <f>"83"</f>
         <v/>
       </c>
       <c r="E110" s="7">
-        <f>"Т масла в МБД  "</f>
+        <f>"Перепад давления газа на БФТГ  "</f>
         <v/>
       </c>
       <c r="F110" s="6">
@@ -1241,15 +3209,15 @@
         <v/>
       </c>
       <c r="C111" s="5">
-        <f>"AI.AI_Tm_MBN"</f>
+        <f>"AI.AI_Pg_inN"</f>
         <v/>
       </c>
       <c r="D111" s="6">
-        <f>"82"</f>
+        <f>"84"</f>
         <v/>
       </c>
       <c r="E111" s="7">
-        <f>"Т масла в МБН  "</f>
+        <f>"Давление газа на входе в ЦБК  "</f>
         <v/>
       </c>
       <c r="F111" s="6">
@@ -1271,15 +3239,15 @@
         <v/>
       </c>
       <c r="C112" s="5">
-        <f>"AI.AI_Tm_PP"</f>
+        <f>"AI.AI_Pbg_inKIP"</f>
         <v/>
       </c>
       <c r="D112" s="6">
-        <f>"83"</f>
+        <f>"85"</f>
         <v/>
       </c>
       <c r="E112" s="7">
-        <f>"Т масла на выходе ПП Н  "</f>
+        <f>"Давление буферного газа на входе в КИП ГДУ  "</f>
         <v/>
       </c>
       <c r="F112" s="6">
@@ -1301,15 +3269,15 @@
         <v/>
       </c>
       <c r="C113" s="5">
-        <f>"AI.AI_Tm_ZP"</f>
+        <f>"AI.AI_Tbg_inKIP"</f>
         <v/>
       </c>
       <c r="D113" s="6">
-        <f>"84"</f>
+        <f>"86"</f>
         <v/>
       </c>
       <c r="E113" s="7">
-        <f>"Т масла на выходе ЗП Н  "</f>
+        <f>"Температура буферного газа на входе в КИП ГДУ  "</f>
         <v/>
       </c>
       <c r="F113" s="6">
@@ -1331,15 +3299,15 @@
         <v/>
       </c>
       <c r="C114" s="5">
-        <f>"AI.AI_Tm_UP"</f>
+        <f>"AI.AI_dP_fbgKIP"</f>
         <v/>
       </c>
       <c r="D114" s="6">
-        <f>"85"</f>
+        <f>"87"</f>
         <v/>
       </c>
       <c r="E114" s="7">
-        <f>"Т масла на выходе УП Н  "</f>
+        <f>"dP на фильтрах буферного газа стойки КИП СГУ  "</f>
         <v/>
       </c>
       <c r="F114" s="6">
@@ -1361,15 +3329,15 @@
         <v/>
       </c>
       <c r="C115" s="5">
-        <f>"AI.AI_Tv_ON"</f>
+        <f>"AI.AI_P_1stvsas"</f>
         <v/>
       </c>
       <c r="D115" s="6">
-        <f>"86"</f>
+        <f>"88"</f>
         <v/>
       </c>
       <c r="E115" s="7">
-        <f>"Т воздуха в ОН  "</f>
+        <f>"Давление после 1-ой ступени ГДУ со стороны всаса  "</f>
         <v/>
       </c>
       <c r="F115" s="6">
@@ -1391,15 +3359,15 @@
         <v/>
       </c>
       <c r="C116" s="5">
-        <f>"AI.AI_Vprc"</f>
+        <f>"AI.AI_P_1stnagn"</f>
         <v/>
       </c>
       <c r="D116" s="6">
-        <f>"87"</f>
+        <f>"89"</f>
         <v/>
       </c>
       <c r="E116" s="7">
-        <f>"Виброперемещение ПОН (rc)  "</f>
+        <f>"Давление после 1-ой ступени ГДУ со стороны нагнетания  "</f>
         <v/>
       </c>
       <c r="F116" s="6">
@@ -1421,15 +3389,15 @@
         <v/>
       </c>
       <c r="C117" s="5">
-        <f>"AI.AI_Vpbc"</f>
+        <f>"AI.AI_Fut_1stvsas"</f>
         <v/>
       </c>
       <c r="D117" s="6">
-        <f>"88"</f>
+        <f>"90"</f>
         <v/>
       </c>
       <c r="E117" s="7">
-        <f>"Виброперемещение ПОН (bc)  "</f>
+        <f>"Расход утечек 1-ой ступени ГДУ со стороны всаса  "</f>
         <v/>
       </c>
       <c r="F117" s="6">
@@ -1441,109 +3409,109 @@
         <v/>
       </c>
     </row>
-    <row r="118" ht="20" customHeight="1">
-      <c r="A118" s="5">
-        <f>CONCATENATE($A$2, $A$1, C118, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B118" s="5">
-        <f>CONCATENATE($A$2, $A$1, C118, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C118" s="5">
-        <f>"AI.AI_Vzrc"</f>
-        <v/>
-      </c>
-      <c r="D118" s="6">
-        <f>"89"</f>
-        <v/>
-      </c>
-      <c r="E118" s="7">
-        <f>"Виброперемещение ЗОН (rc)  "</f>
-        <v/>
-      </c>
-      <c r="F118" s="6">
-        <f>CurrAttrValue(B118, 0)</f>
-        <v/>
-      </c>
-      <c r="G118" s="6">
-        <f>CurrAttrValue(A118, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="119" ht="20" customHeight="1">
-      <c r="A119" s="5">
-        <f>CONCATENATE($A$2, $A$1, C119, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B119" s="5">
-        <f>CONCATENATE($A$2, $A$1, C119, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C119" s="5">
-        <f>"AI.AI_Vzbc"</f>
-        <v/>
-      </c>
-      <c r="D119" s="6">
-        <f>"90"</f>
-        <v/>
-      </c>
-      <c r="E119" s="7">
-        <f>"Виброперемещение ЗОН (bc)  "</f>
-        <v/>
-      </c>
-      <c r="F119" s="6">
-        <f>CurrAttrValue(B119, 0)</f>
-        <v/>
-      </c>
-      <c r="G119" s="6">
-        <f>CurrAttrValue(A119, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="122" ht="35" customHeight="1">
-      <c r="E122" s="8">
+    <row r="120" ht="35" customHeight="1">
+      <c r="E120" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F122" s="8">
+      <c r="F120" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G122" s="8">
+      <c r="G120" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="123" ht="40" customHeight="1">
-      <c r="E123" s="1">
+    <row r="121" ht="40" customHeight="1">
+      <c r="E121" s="1">
         <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
         <v/>
       </c>
-      <c r="F123" s="2">
+      <c r="F121" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G123" s="3">
+      <c r="G121" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
+    <row r="123" ht="20" customHeight="1">
+      <c r="D123" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E123" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F123" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G123" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" ht="20" customHeight="1">
+      <c r="A124" s="5">
+        <f>CONCATENATE($A$2, $A$1, C124, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B124" s="5">
+        <f>CONCATENATE($A$2, $A$1, C124, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C124" s="5">
+        <f>"AI.AI_Fut_1stnagn"</f>
+        <v/>
+      </c>
+      <c r="D124" s="6">
+        <f>"91"</f>
+        <v/>
+      </c>
+      <c r="E124" s="7">
+        <f>"Расход утечек 1-ой ступени ГДУ со стороны нагнетания  "</f>
+        <v/>
+      </c>
+      <c r="F124" s="6">
+        <f>CurrAttrValue(B124, 0)</f>
+        <v/>
+      </c>
+      <c r="G124" s="6">
+        <f>CurrAttrValue(A124, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="125" ht="20" customHeight="1">
-      <c r="D125" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E125" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F125" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G125" s="4">
-        <f>"Ед. изм"</f>
+      <c r="A125" s="5">
+        <f>CONCATENATE($A$2, $A$1, C125, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B125" s="5">
+        <f>CONCATENATE($A$2, $A$1, C125, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C125" s="5">
+        <f>"AI.AI_dPgg_vsas"</f>
+        <v/>
+      </c>
+      <c r="D125" s="6">
+        <f>"92"</f>
+        <v/>
+      </c>
+      <c r="E125" s="7">
+        <f>"Перепад давления буферного газа на дросселе ГДУ (всас)  "</f>
+        <v/>
+      </c>
+      <c r="F125" s="6">
+        <f>CurrAttrValue(B125, 0)</f>
+        <v/>
+      </c>
+      <c r="G125" s="6">
+        <f>CurrAttrValue(A125, 0)</f>
         <v/>
       </c>
     </row>
@@ -1557,15 +3525,15 @@
         <v/>
       </c>
       <c r="C126" s="5">
-        <f>"AI.AI_Vo"</f>
+        <f>"AI.AI_dPgg_nagn"</f>
         <v/>
       </c>
       <c r="D126" s="6">
-        <f>"91"</f>
+        <f>"93"</f>
         <v/>
       </c>
       <c r="E126" s="7">
-        <f>"Осевой сдвиг ротора Н  "</f>
+        <f>"Перепад давления буферного газа на дросселе ГДУ (нагн)  "</f>
         <v/>
       </c>
       <c r="F126" s="6">
@@ -1587,15 +3555,15 @@
         <v/>
       </c>
       <c r="C127" s="5">
-        <f>"AI.AI_Zag_BN"</f>
+        <f>"AI.AI_Tbv_inSGU"</f>
         <v/>
       </c>
       <c r="D127" s="6">
-        <f>"92"</f>
+        <f>"94"</f>
         <v/>
       </c>
       <c r="E127" s="7">
-        <f>"Загазованность  Б.Н.  "</f>
+        <f>"Температура барьерного воздуха на входе в СГУ  "</f>
         <v/>
       </c>
       <c r="F127" s="6">
@@ -1617,15 +3585,15 @@
         <v/>
       </c>
       <c r="C128" s="5">
-        <f>"AI.AI_Zag_BD"</f>
+        <f>"AI.AI_Pbv"</f>
         <v/>
       </c>
       <c r="D128" s="6">
-        <f>"93"</f>
+        <f>"95"</f>
         <v/>
       </c>
       <c r="E128" s="7">
-        <f>"Загазованность  Б.Д.  "</f>
+        <f>"Давление барьерного воздуха на входе в СГУ  "</f>
         <v/>
       </c>
       <c r="F128" s="6">
@@ -1647,15 +3615,15 @@
         <v/>
       </c>
       <c r="C129" s="5">
-        <f>"AI.AI_PinN"</f>
+        <f>"AI.AI_Pm_inD"</f>
         <v/>
       </c>
       <c r="D129" s="6">
-        <f>"94"</f>
+        <f>"96"</f>
         <v/>
       </c>
       <c r="E129" s="7">
-        <f>"P газа на входе Н  "</f>
+        <f>"Р масла в нагнетающей магистрали ГТД (после фильтра)  "</f>
         <v/>
       </c>
       <c r="F129" s="6">
@@ -1677,15 +3645,15 @@
         <v/>
       </c>
       <c r="C130" s="5">
-        <f>"AI.AI_Pm_MBD"</f>
+        <f>"AI.AI_Pm_outKPA"</f>
         <v/>
       </c>
       <c r="D130" s="6">
-        <f>"95"</f>
+        <f>"97"</f>
         <v/>
       </c>
       <c r="E130" s="7">
-        <f>"Давление МБД  "</f>
+        <f>"Р масла после насоса МНЭ6002  "</f>
         <v/>
       </c>
       <c r="F130" s="6">
@@ -1707,15 +3675,15 @@
         <v/>
       </c>
       <c r="C131" s="5">
-        <f>"AI.AI_Pm_inTK"</f>
+        <f>"AI.AI_Vpp_gor"</f>
         <v/>
       </c>
       <c r="D131" s="6">
-        <f>"96"</f>
+        <f>"98"</f>
         <v/>
       </c>
       <c r="E131" s="7">
-        <f>"Р масла на входе ТК  "</f>
+        <f>"Виброперемещение ротора в передней опоре (гориз.)  "</f>
         <v/>
       </c>
       <c r="F131" s="6">
@@ -1737,15 +3705,15 @@
         <v/>
       </c>
       <c r="C132" s="5">
-        <f>"AI.AI_Pm_inST"</f>
+        <f>"AI.AI_Vpp_vert"</f>
         <v/>
       </c>
       <c r="D132" s="6">
-        <f>"97"</f>
+        <f>"99"</f>
         <v/>
       </c>
       <c r="E132" s="7">
-        <f>"Р масла на входе СТ  "</f>
+        <f>"Виброперемещение ротора в передней опоре (вертик.)  "</f>
         <v/>
       </c>
       <c r="F132" s="6">
@@ -1767,15 +3735,15 @@
         <v/>
       </c>
       <c r="C133" s="5">
-        <f>"AI.AI_Pm_MBN"</f>
+        <f>"AI.AI_Vpz_gor"</f>
         <v/>
       </c>
       <c r="D133" s="6">
-        <f>"98"</f>
+        <f>"100"</f>
         <v/>
       </c>
       <c r="E133" s="7">
-        <f>"Давление МБН  "</f>
+        <f>"Виброперемещение ротора в задней опоре (гориз.)  "</f>
         <v/>
       </c>
       <c r="F133" s="6">
@@ -1797,15 +3765,15 @@
         <v/>
       </c>
       <c r="C134" s="5">
-        <f>"AI.AI_Patm"</f>
+        <f>"AI.AI_Vpz_vert"</f>
         <v/>
       </c>
       <c r="D134" s="6">
-        <f>"99"</f>
+        <f>"101"</f>
         <v/>
       </c>
       <c r="E134" s="7">
-        <f>"Атмосферное давление  "</f>
+        <f>"Виброперемещение ротора в задней опоре (вертик.)  "</f>
         <v/>
       </c>
       <c r="F134" s="6">
@@ -1827,15 +3795,15 @@
         <v/>
       </c>
       <c r="C135" s="5">
-        <f>"AI.AI_Tv_PKA"</f>
+        <f>"AI.AI_OS1"</f>
         <v/>
       </c>
       <c r="D135" s="6">
-        <f>"100"</f>
+        <f>"102"</f>
         <v/>
       </c>
       <c r="E135" s="7">
-        <f>"Т воздуха в ПКА  "</f>
+        <f>"Осевой сдвиг ротора ЦБК т.1  "</f>
         <v/>
       </c>
       <c r="F135" s="6">
@@ -1857,15 +3825,15 @@
         <v/>
       </c>
       <c r="C136" s="5">
-        <f>"AI.AI_Tatm"</f>
+        <f>"AI.AI_OS2"</f>
         <v/>
       </c>
       <c r="D136" s="6">
-        <f>"101"</f>
+        <f>"103"</f>
         <v/>
       </c>
       <c r="E136" s="7">
-        <f>"T атомсферного воздуха  "</f>
+        <f>"Осевой сдвиг ротора ЦБК т.2  "</f>
         <v/>
       </c>
       <c r="F136" s="6">
@@ -1887,15 +3855,15 @@
         <v/>
       </c>
       <c r="C137" s="5">
-        <f>"AI.AI_dPtg_MSH"</f>
+        <f>"AI.AI_Pmsn1"</f>
         <v/>
       </c>
       <c r="D137" s="6">
-        <f>"102"</f>
+        <f>"104"</f>
         <v/>
       </c>
       <c r="E137" s="7">
-        <f>"Перепад давления ТГ на МШ  "</f>
+        <f>"Давление масла на входе в компрессор т.1  "</f>
         <v/>
       </c>
       <c r="F137" s="6">
@@ -1917,15 +3885,15 @@
         <v/>
       </c>
       <c r="C138" s="5">
-        <f>"AI.AI_Ptg_MSH"</f>
+        <f>"AI.AI_Tm_inMOK"</f>
         <v/>
       </c>
       <c r="D138" s="6">
-        <f>"103"</f>
+        <f>"105"</f>
         <v/>
       </c>
       <c r="E138" s="7">
-        <f>"Давление ТГ перед МШ (резерв)  "</f>
+        <f>"Температура масла на входе в МО ЦБК  "</f>
         <v/>
       </c>
       <c r="F138" s="6">
@@ -1947,15 +3915,15 @@
         <v/>
       </c>
       <c r="C139" s="5">
-        <f>"AI.AI_Tm_inD"</f>
+        <f>"AI.AI_T_MOK"</f>
         <v/>
       </c>
       <c r="D139" s="6">
-        <f>"104"</f>
+        <f>"106"</f>
         <v/>
       </c>
       <c r="E139" s="7">
-        <f>"Т масла на входе ГТД  "</f>
+        <f>"Температура секции МО ЦБК  "</f>
         <v/>
       </c>
       <c r="F139" s="6">
@@ -1977,15 +3945,15 @@
         <v/>
       </c>
       <c r="C140" s="5">
-        <f>"AI.AI_Tm_outD"</f>
+        <f>"AI.AI_Tm_outMOK"</f>
         <v/>
       </c>
       <c r="D140" s="6">
-        <f>"105"</f>
+        <f>"107"</f>
         <v/>
       </c>
       <c r="E140" s="7">
-        <f>"Т масла на сливе из ГТД  "</f>
+        <f>"Температура масла на выходе МО ЦБК  "</f>
         <v/>
       </c>
       <c r="F140" s="6">
@@ -2007,15 +3975,15 @@
         <v/>
       </c>
       <c r="C141" s="5">
-        <f>"AI.AI_dPmg"</f>
+        <f>"AI.AI_Pm_inMOK"</f>
         <v/>
       </c>
       <c r="D141" s="6">
-        <f>"106"</f>
+        <f>"108"</f>
         <v/>
       </c>
       <c r="E141" s="7">
-        <f>"dP масло-газ  "</f>
+        <f>"Давление масла на входе в МО ЦБК  "</f>
         <v/>
       </c>
       <c r="F141" s="6">
@@ -2027,109 +3995,109 @@
         <v/>
       </c>
     </row>
-    <row r="142" ht="20" customHeight="1">
-      <c r="A142" s="5">
-        <f>CONCATENATE($A$2, $A$1, C142, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B142" s="5">
-        <f>CONCATENATE($A$2, $A$1, C142, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C142" s="5">
-        <f>"AI.AI_Pm_sN"</f>
-        <v/>
-      </c>
-      <c r="D142" s="6">
-        <f>"107"</f>
-        <v/>
-      </c>
-      <c r="E142" s="7">
-        <f>"P масла смазки Н  "</f>
-        <v/>
-      </c>
-      <c r="F142" s="6">
-        <f>CurrAttrValue(B142, 0)</f>
-        <v/>
-      </c>
-      <c r="G142" s="6">
-        <f>CurrAttrValue(A142, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="143" ht="20" customHeight="1">
-      <c r="A143" s="5">
-        <f>CONCATENATE($A$2, $A$1, C143, $B$2)</f>
-        <v/>
-      </c>
-      <c r="B143" s="5">
-        <f>CONCATENATE($A$2, $A$1, C143, $B$1)</f>
-        <v/>
-      </c>
-      <c r="C143" s="5">
-        <f>"AI.AI_Pm_uN"</f>
-        <v/>
-      </c>
-      <c r="D143" s="6">
-        <f>"108"</f>
-        <v/>
-      </c>
-      <c r="E143" s="7">
-        <f>"P масла уплотнений Н  "</f>
-        <v/>
-      </c>
-      <c r="F143" s="6">
-        <f>CurrAttrValue(B143, 0)</f>
-        <v/>
-      </c>
-      <c r="G143" s="6">
-        <f>CurrAttrValue(A143, 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="146" ht="35" customHeight="1">
-      <c r="E146" s="8">
+    <row r="144" ht="35" customHeight="1">
+      <c r="E144" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F146" s="8">
+      <c r="F144" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G146" s="8">
+      <c r="G144" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
     </row>
-    <row r="147" ht="40" customHeight="1">
-      <c r="E147" s="1">
+    <row r="145" ht="40" customHeight="1">
+      <c r="E145" s="1">
         <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
         <v/>
       </c>
-      <c r="F147" s="2">
+      <c r="F145" s="2">
         <f>F1</f>
         <v/>
       </c>
-      <c r="G147" s="3">
+      <c r="G145" s="3">
         <f>G1</f>
         <v/>
       </c>
     </row>
+    <row r="147" ht="20" customHeight="1">
+      <c r="D147" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E147" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F147" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G147" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" ht="20" customHeight="1">
+      <c r="A148" s="5">
+        <f>CONCATENATE($A$2, $A$1, C148, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B148" s="5">
+        <f>CONCATENATE($A$2, $A$1, C148, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C148" s="5">
+        <f>"AI.AI_Tatm"</f>
+        <v/>
+      </c>
+      <c r="D148" s="6">
+        <f>"109"</f>
+        <v/>
+      </c>
+      <c r="E148" s="7">
+        <f>"Температура наружного воздуха  "</f>
+        <v/>
+      </c>
+      <c r="F148" s="6">
+        <f>CurrAttrValue(B148, 0)</f>
+        <v/>
+      </c>
+      <c r="G148" s="6">
+        <f>CurrAttrValue(A148, 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="149" ht="20" customHeight="1">
-      <c r="D149" s="4">
-        <f>"№"</f>
-        <v/>
-      </c>
-      <c r="E149" s="4">
-        <f>"Наименование параметра  "</f>
-        <v/>
-      </c>
-      <c r="F149" s="4">
-        <f>"Значение"</f>
-        <v/>
-      </c>
-      <c r="G149" s="4">
-        <f>"Ед. изм"</f>
+      <c r="A149" s="5">
+        <f>CONCATENATE($A$2, $A$1, C149, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B149" s="5">
+        <f>CONCATENATE($A$2, $A$1, C149, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C149" s="5">
+        <f>"AI.AI_dPg_reshetN"</f>
+        <v/>
+      </c>
+      <c r="D149" s="6">
+        <f>"110"</f>
+        <v/>
+      </c>
+      <c r="E149" s="7">
+        <f>"Перепад давления газа на защитной решётке перед ЦБК  "</f>
+        <v/>
+      </c>
+      <c r="F149" s="6">
+        <f>CurrAttrValue(B149, 0)</f>
+        <v/>
+      </c>
+      <c r="G149" s="6">
+        <f>CurrAttrValue(A149, 0)</f>
         <v/>
       </c>
     </row>
@@ -2143,15 +4111,15 @@
         <v/>
       </c>
       <c r="C150" s="5">
-        <f>"AI.AI_dP_VOU"</f>
+        <f>"AI.AI_Pg_inKr2"</f>
         <v/>
       </c>
       <c r="D150" s="6">
-        <f>"109"</f>
+        <f>"111"</f>
         <v/>
       </c>
       <c r="E150" s="7">
-        <f>"dP на фильтре ВОУ  "</f>
+        <f>"Давление газа за краном №2  "</f>
         <v/>
       </c>
       <c r="F150" s="6">
@@ -2173,15 +4141,15 @@
         <v/>
       </c>
       <c r="C151" s="5">
-        <f>"AI.AI_Tm_inN"</f>
+        <f>"AI.AI_Pmsn2"</f>
         <v/>
       </c>
       <c r="D151" s="6">
-        <f>"110"</f>
+        <f>"112"</f>
         <v/>
       </c>
       <c r="E151" s="7">
-        <f>"Т масла на входе Н  "</f>
+        <f>"Давление масла на входе в компрессор т.2  "</f>
         <v/>
       </c>
       <c r="F151" s="6">
@@ -2203,15 +4171,15 @@
         <v/>
       </c>
       <c r="C152" s="5">
-        <f>"AI.AI_Tv_OD"</f>
+        <f>"AI.AI_Tm_inMOD"</f>
         <v/>
       </c>
       <c r="D152" s="6">
-        <f>"111"</f>
+        <f>"113"</f>
         <v/>
       </c>
       <c r="E152" s="7">
-        <f>"T воздуха в ОД  "</f>
+        <f>"Температура масла на входе в МО ГТД  "</f>
         <v/>
       </c>
       <c r="F152" s="6">
@@ -2233,15 +4201,15 @@
         <v/>
       </c>
       <c r="C153" s="5">
-        <f>"AI.AI_Tv_BB"</f>
+        <f>"AI.AI_Tm_outMOD"</f>
         <v/>
       </c>
       <c r="D153" s="6">
-        <f>"112"</f>
+        <f>"114"</f>
         <v/>
       </c>
       <c r="E153" s="7">
-        <f>"T воздуха в ББ (резерв)  "</f>
+        <f>"Температура масла на выходе МО ГТД  "</f>
         <v/>
       </c>
       <c r="F153" s="6">
@@ -2263,15 +4231,15 @@
         <v/>
       </c>
       <c r="C154" s="5">
-        <f>"AI.AI_Tv_OA"</f>
+        <f>"AI.AI_T_MOD"</f>
         <v/>
       </c>
       <c r="D154" s="6">
-        <f>"113"</f>
+        <f>"115"</f>
         <v/>
       </c>
       <c r="E154" s="7">
-        <f>"T воздуха в ОА  "</f>
+        <f>"Температура секции МО ГТД  "</f>
         <v/>
       </c>
       <c r="F154" s="6">
@@ -2293,15 +4261,15 @@
         <v/>
       </c>
       <c r="C155" s="5">
-        <f>"AI.AI_V_TK"</f>
+        <f>"AI.AI_Pm_inMOD"</f>
         <v/>
       </c>
       <c r="D155" s="6">
-        <f>"114"</f>
+        <f>"116"</f>
         <v/>
       </c>
       <c r="E155" s="7">
-        <f>"Виброскорость корпуса ТК  "</f>
+        <f>"Давление масла на входе в МО ГТД  "</f>
         <v/>
       </c>
       <c r="F155" s="6">
@@ -2323,15 +4291,15 @@
         <v/>
       </c>
       <c r="C156" s="5">
-        <f>"AI.AI_V_ST"</f>
+        <f>"AI.AI_Tnagr_bg"</f>
         <v/>
       </c>
       <c r="D156" s="6">
-        <f>"115"</f>
+        <f>"117"</f>
         <v/>
       </c>
       <c r="E156" s="7">
-        <f>"Виброскорость корпуса СТ  "</f>
+        <f>"Температура алюминиевого блока нагревателя буферного газа  "</f>
         <v/>
       </c>
       <c r="F156" s="6">
@@ -2353,15 +4321,15 @@
         <v/>
       </c>
       <c r="C157" s="5">
-        <f>"AI.AI_U_VVOD1"</f>
+        <f>"AI.AI_P_VMS"</f>
         <v/>
       </c>
       <c r="D157" s="6">
-        <f>"116"</f>
+        <f>"118"</f>
         <v/>
       </c>
       <c r="E157" s="7">
-        <f>"Напр. на Вводе 1 (Основное питание AC 220В)  "</f>
+        <f>"Изб. Р воздушномасляной смеси в МБД  "</f>
         <v/>
       </c>
       <c r="F157" s="6">
@@ -2383,15 +4351,15 @@
         <v/>
       </c>
       <c r="C158" s="5">
-        <f>"AI.AI_U_VVOD2"</f>
+        <f>"AI.AI_Qa_KST"</f>
         <v/>
       </c>
       <c r="D158" s="6">
-        <f>"117"</f>
+        <f>"119"</f>
         <v/>
       </c>
       <c r="E158" s="7">
-        <f>"Напр. на Вводе 2 (Резервное питание DC 220В)  "</f>
+        <f>"Расход воздуха через турбоблок  "</f>
         <v/>
       </c>
       <c r="F158" s="6">
@@ -2413,15 +4381,15 @@
         <v/>
       </c>
       <c r="C159" s="5">
-        <f>"AI.AI_U_VVOD3"</f>
+        <f>"AI.AI_dPvKS_razr"</f>
         <v/>
       </c>
       <c r="D159" s="6">
-        <f>"118"</f>
+        <f>"120"</f>
         <v/>
       </c>
       <c r="E159" s="7">
-        <f>"Напр. на Вводе 3 (Питание DC 27В)  "</f>
+        <f>"Разрежение в камере всасывания  "</f>
         <v/>
       </c>
       <c r="F159" s="6">
@@ -2433,16 +4401,692 @@
         <v/>
       </c>
     </row>
-    <row r="162" ht="35" customHeight="1">
-      <c r="E162" s="8">
+    <row r="160" ht="20" customHeight="1">
+      <c r="A160" s="5">
+        <f>CONCATENATE($A$2, $A$1, C160, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B160" s="5">
+        <f>CONCATENATE($A$2, $A$1, C160, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C160" s="5">
+        <f>"AI.AI_dPv_razr"</f>
+        <v/>
+      </c>
+      <c r="D160" s="6">
+        <f>"121"</f>
+        <v/>
+      </c>
+      <c r="E160" s="7">
+        <f>"Разрежение воздуха перед ГТД  "</f>
+        <v/>
+      </c>
+      <c r="F160" s="6">
+        <f>CurrAttrValue(B160, 0)</f>
+        <v/>
+      </c>
+      <c r="G160" s="6">
+        <f>CurrAttrValue(A160, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" ht="20" customHeight="1">
+      <c r="A161" s="5">
+        <f>CONCATENATE($A$2, $A$1, C161, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B161" s="5">
+        <f>CONCATENATE($A$2, $A$1, C161, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C161" s="5">
+        <f>"AI.AI_Patm"</f>
+        <v/>
+      </c>
+      <c r="D161" s="6">
+        <f>"122"</f>
+        <v/>
+      </c>
+      <c r="E161" s="7">
+        <f>"Давление атмосферного воздуха  "</f>
+        <v/>
+      </c>
+      <c r="F161" s="6">
+        <f>CurrAttrValue(B161, 0)</f>
+        <v/>
+      </c>
+      <c r="G161" s="6">
+        <f>CurrAttrValue(A161, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" ht="20" customHeight="1">
+      <c r="A162" s="5">
+        <f>CONCATENATE($A$2, $A$1, C162, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B162" s="5">
+        <f>CONCATENATE($A$2, $A$1, C162, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C162" s="5">
+        <f>"AI.AI_Tbg_outNagr"</f>
+        <v/>
+      </c>
+      <c r="D162" s="6">
+        <f>"123"</f>
+        <v/>
+      </c>
+      <c r="E162" s="7">
+        <f>"Температура буферного газа после нагревателя  "</f>
+        <v/>
+      </c>
+      <c r="F162" s="6">
+        <f>CurrAttrValue(B162, 0)</f>
+        <v/>
+      </c>
+      <c r="G162" s="6">
+        <f>CurrAttrValue(A162, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" ht="20" customHeight="1">
+      <c r="A163" s="5">
+        <f>CONCATENATE($A$2, $A$1, C163, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B163" s="5">
+        <f>CONCATENATE($A$2, $A$1, C163, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C163" s="5">
+        <f>"AI.AI_Zag_SGUsk"</f>
+        <v/>
+      </c>
+      <c r="D163" s="6">
+        <f>"124"</f>
+        <v/>
+      </c>
+      <c r="E163" s="7">
+        <f>"Загазованность после 2ой ступени СГУ со стороны свободн. конца  "</f>
+        <v/>
+      </c>
+      <c r="F163" s="6">
+        <f>CurrAttrValue(B163, 0)</f>
+        <v/>
+      </c>
+      <c r="G163" s="6">
+        <f>CurrAttrValue(A163, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" ht="20" customHeight="1">
+      <c r="A164" s="5">
+        <f>CONCATENATE($A$2, $A$1, C164, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B164" s="5">
+        <f>CONCATENATE($A$2, $A$1, C164, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C164" s="5">
+        <f>"AI.AI_Zag_SGUPriv"</f>
+        <v/>
+      </c>
+      <c r="D164" s="6">
+        <f>"125"</f>
+        <v/>
+      </c>
+      <c r="E164" s="7">
+        <f>"Загазованность после 2ой ступени СГУ со стороны привод  "</f>
+        <v/>
+      </c>
+      <c r="F164" s="6">
+        <f>CurrAttrValue(B164, 0)</f>
+        <v/>
+      </c>
+      <c r="G164" s="6">
+        <f>CurrAttrValue(A164, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" ht="20" customHeight="1">
+      <c r="A165" s="5">
+        <f>CONCATENATE($A$2, $A$1, C165, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B165" s="5">
+        <f>CONCATENATE($A$2, $A$1, C165, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C165" s="5">
+        <f>"AI.AI_KV1_POS"</f>
+        <v/>
+      </c>
+      <c r="D165" s="6">
+        <f>"126"</f>
+        <v/>
+      </c>
+      <c r="E165" s="7">
+        <f>"Положение клапана КВ1 на входе БВ1  "</f>
+        <v/>
+      </c>
+      <c r="F165" s="6">
+        <f>CurrAttrValue(B165, 0)</f>
+        <v/>
+      </c>
+      <c r="G165" s="6">
+        <f>CurrAttrValue(A165, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" ht="35" customHeight="1">
+      <c r="E168" s="8">
         <f>"должность"</f>
         <v/>
       </c>
-      <c r="F162" s="8">
+      <c r="F168" s="8">
         <f>"ФИО"</f>
         <v/>
       </c>
-      <c r="G162" s="8">
+      <c r="G168" s="8">
+        <f>"подпись"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" ht="40" customHeight="1">
+      <c r="E169" s="1">
+        <f>"Срез значений измеряемых параметров ГПА №2 на "</f>
+        <v/>
+      </c>
+      <c r="F169" s="2">
+        <f>F1</f>
+        <v/>
+      </c>
+      <c r="G169" s="3">
+        <f>G1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" ht="20" customHeight="1">
+      <c r="D171" s="4">
+        <f>"№"</f>
+        <v/>
+      </c>
+      <c r="E171" s="4">
+        <f>"Наименование параметра  "</f>
+        <v/>
+      </c>
+      <c r="F171" s="4">
+        <f>"Значение"</f>
+        <v/>
+      </c>
+      <c r="G171" s="4">
+        <f>"Ед. изм"</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" ht="20" customHeight="1">
+      <c r="A172" s="5">
+        <f>CONCATENATE($A$2, $A$1, C172, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B172" s="5">
+        <f>CONCATENATE($A$2, $A$1, C172, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C172" s="5">
+        <f>"AI.AI_KV2_POS"</f>
+        <v/>
+      </c>
+      <c r="D172" s="6">
+        <f>"127"</f>
+        <v/>
+      </c>
+      <c r="E172" s="7">
+        <f>"Положение клапана КВ2 на входе БВ1  "</f>
+        <v/>
+      </c>
+      <c r="F172" s="6">
+        <f>CurrAttrValue(B172, 0)</f>
+        <v/>
+      </c>
+      <c r="G172" s="6">
+        <f>CurrAttrValue(A172, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" ht="20" customHeight="1">
+      <c r="A173" s="5">
+        <f>CONCATENATE($A$2, $A$1, C173, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B173" s="5">
+        <f>CONCATENATE($A$2, $A$1, C173, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C173" s="5">
+        <f>"AI.AI_KV3_POS"</f>
+        <v/>
+      </c>
+      <c r="D173" s="6">
+        <f>"128"</f>
+        <v/>
+      </c>
+      <c r="E173" s="7">
+        <f>"Положение клапана КВ3 на выходе КШТ  "</f>
+        <v/>
+      </c>
+      <c r="F173" s="6">
+        <f>CurrAttrValue(B173, 0)</f>
+        <v/>
+      </c>
+      <c r="G173" s="6">
+        <f>CurrAttrValue(A173, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" ht="20" customHeight="1">
+      <c r="A174" s="5">
+        <f>CONCATENATE($A$2, $A$1, C174, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B174" s="5">
+        <f>CONCATENATE($A$2, $A$1, C174, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C174" s="5">
+        <f>"AI.AI_KV4_POS"</f>
+        <v/>
+      </c>
+      <c r="D174" s="6">
+        <f>"129"</f>
+        <v/>
+      </c>
+      <c r="E174" s="7">
+        <f>"Положение клапана КВ4 рециркуляции КШТ  "</f>
+        <v/>
+      </c>
+      <c r="F174" s="6">
+        <f>CurrAttrValue(B174, 0)</f>
+        <v/>
+      </c>
+      <c r="G174" s="6">
+        <f>CurrAttrValue(A174, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" ht="20" customHeight="1">
+      <c r="A175" s="5">
+        <f>CONCATENATE($A$2, $A$1, C175, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B175" s="5">
+        <f>CONCATENATE($A$2, $A$1, C175, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C175" s="5">
+        <f>"AI.AI_SGU_POS"</f>
+        <v/>
+      </c>
+      <c r="D175" s="6">
+        <f>"130"</f>
+        <v/>
+      </c>
+      <c r="E175" s="7">
+        <f>"Положение клапана газ-газ  "</f>
+        <v/>
+      </c>
+      <c r="F175" s="6">
+        <f>CurrAttrValue(B175, 0)</f>
+        <v/>
+      </c>
+      <c r="G175" s="6">
+        <f>CurrAttrValue(A175, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" ht="20" customHeight="1">
+      <c r="A176" s="5">
+        <f>CONCATENATE($A$2, $A$1, C176, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B176" s="5">
+        <f>CONCATENATE($A$2, $A$1, C176, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C176" s="5">
+        <f>"AI.AI_Lmbd"</f>
+        <v/>
+      </c>
+      <c r="D176" s="6">
+        <f>"131"</f>
+        <v/>
+      </c>
+      <c r="E176" s="7">
+        <f>"Уровень масла в МБД  "</f>
+        <v/>
+      </c>
+      <c r="F176" s="6">
+        <f>CurrAttrValue(B176, 0)</f>
+        <v/>
+      </c>
+      <c r="G176" s="6">
+        <f>CurrAttrValue(A176, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" ht="20" customHeight="1">
+      <c r="A177" s="5">
+        <f>CONCATENATE($A$2, $A$1, C177, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B177" s="5">
+        <f>CONCATENATE($A$2, $A$1, C177, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C177" s="5">
+        <f>"AI.AI_Lmbn"</f>
+        <v/>
+      </c>
+      <c r="D177" s="6">
+        <f>"132"</f>
+        <v/>
+      </c>
+      <c r="E177" s="7">
+        <f>"Объём масла в МБК  "</f>
+        <v/>
+      </c>
+      <c r="F177" s="6">
+        <f>CurrAttrValue(B177, 0)</f>
+        <v/>
+      </c>
+      <c r="G177" s="6">
+        <f>CurrAttrValue(A177, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" ht="20" customHeight="1">
+      <c r="A178" s="5">
+        <f>CONCATENATE($A$2, $A$1, C178, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B178" s="5">
+        <f>CONCATENATE($A$2, $A$1, C178, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C178" s="5">
+        <f>"AI.AI_T_SHL1"</f>
+        <v/>
+      </c>
+      <c r="D178" s="6">
+        <f>"133"</f>
+        <v/>
+      </c>
+      <c r="E178" s="7">
+        <f>"Температура воздуха в ШЛ1  "</f>
+        <v/>
+      </c>
+      <c r="F178" s="6">
+        <f>CurrAttrValue(B178, 0)</f>
+        <v/>
+      </c>
+      <c r="G178" s="6">
+        <f>CurrAttrValue(A178, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" ht="20" customHeight="1">
+      <c r="A179" s="5">
+        <f>CONCATENATE($A$2, $A$1, C179, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B179" s="5">
+        <f>CONCATENATE($A$2, $A$1, C179, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C179" s="5">
+        <f>"AI.AI_T_AVR"</f>
+        <v/>
+      </c>
+      <c r="D179" s="6">
+        <f>"134"</f>
+        <v/>
+      </c>
+      <c r="E179" s="7">
+        <f>"Температура воздуха в АВР  "</f>
+        <v/>
+      </c>
+      <c r="F179" s="6">
+        <f>CurrAttrValue(B179, 0)</f>
+        <v/>
+      </c>
+      <c r="G179" s="6">
+        <f>CurrAttrValue(A179, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" ht="20" customHeight="1">
+      <c r="A180" s="5">
+        <f>CONCATENATE($A$2, $A$1, C180, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B180" s="5">
+        <f>CONCATENATE($A$2, $A$1, C180, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C180" s="5">
+        <f>"AI.AI_T_SHL4"</f>
+        <v/>
+      </c>
+      <c r="D180" s="6">
+        <f>"135"</f>
+        <v/>
+      </c>
+      <c r="E180" s="7">
+        <f>"Температура воздуха в ШЛ4  "</f>
+        <v/>
+      </c>
+      <c r="F180" s="6">
+        <f>CurrAttrValue(B180, 0)</f>
+        <v/>
+      </c>
+      <c r="G180" s="6">
+        <f>CurrAttrValue(A180, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" ht="20" customHeight="1">
+      <c r="A181" s="5">
+        <f>CONCATENATE($A$2, $A$1, C181, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B181" s="5">
+        <f>CONCATENATE($A$2, $A$1, C181, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C181" s="5">
+        <f>"AI.AI_TaBET1"</f>
+        <v/>
+      </c>
+      <c r="D181" s="6">
+        <f>"136"</f>
+        <v/>
+      </c>
+      <c r="E181" s="7">
+        <f>"Температура воздуха в БЭТ  "</f>
+        <v/>
+      </c>
+      <c r="F181" s="6">
+        <f>CurrAttrValue(B181, 0)</f>
+        <v/>
+      </c>
+      <c r="G181" s="6">
+        <f>CurrAttrValue(A181, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" ht="20" customHeight="1">
+      <c r="A182" s="5">
+        <f>CONCATENATE($A$2, $A$1, C182, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B182" s="5">
+        <f>CONCATENATE($A$2, $A$1, C182, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C182" s="5">
+        <f>"AI.AI_TaBET2"</f>
+        <v/>
+      </c>
+      <c r="D182" s="6">
+        <f>"137"</f>
+        <v/>
+      </c>
+      <c r="E182" s="7">
+        <f>"Температура воздуха снаружи БЭТ  "</f>
+        <v/>
+      </c>
+      <c r="F182" s="6">
+        <f>CurrAttrValue(B182, 0)</f>
+        <v/>
+      </c>
+      <c r="G182" s="6">
+        <f>CurrAttrValue(A182, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" ht="20" customHeight="1">
+      <c r="A183" s="5">
+        <f>CONCATENATE($A$2, $A$1, C183, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B183" s="5">
+        <f>CONCATENATE($A$2, $A$1, C183, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C183" s="5">
+        <f>"AI.AI_TaBSAU1"</f>
+        <v/>
+      </c>
+      <c r="D183" s="6">
+        <f>"138"</f>
+        <v/>
+      </c>
+      <c r="E183" s="7">
+        <f>"Температура воздуха в БСАУ  "</f>
+        <v/>
+      </c>
+      <c r="F183" s="6">
+        <f>CurrAttrValue(B183, 0)</f>
+        <v/>
+      </c>
+      <c r="G183" s="6">
+        <f>CurrAttrValue(A183, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" ht="20" customHeight="1">
+      <c r="A184" s="5">
+        <f>CONCATENATE($A$2, $A$1, C184, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B184" s="5">
+        <f>CONCATENATE($A$2, $A$1, C184, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C184" s="5">
+        <f>"AI.AI_TaBSAU2"</f>
+        <v/>
+      </c>
+      <c r="D184" s="6">
+        <f>"139"</f>
+        <v/>
+      </c>
+      <c r="E184" s="7">
+        <f>"Температура воздуха снаружи БСАУ  "</f>
+        <v/>
+      </c>
+      <c r="F184" s="6">
+        <f>CurrAttrValue(B184, 0)</f>
+        <v/>
+      </c>
+      <c r="G184" s="6">
+        <f>CurrAttrValue(A184, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" ht="20" customHeight="1">
+      <c r="A185" s="5">
+        <f>CONCATENATE($A$2, $A$1, C185, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B185" s="5">
+        <f>CONCATENATE($A$2, $A$1, C185, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C185" s="5">
+        <f>"AI.AI_TaSPT"</f>
+        <v/>
+      </c>
+      <c r="D185" s="6">
+        <f>"140"</f>
+        <v/>
+      </c>
+      <c r="E185" s="7">
+        <f>"Температура воздуха в ШПТ  "</f>
+        <v/>
+      </c>
+      <c r="F185" s="6">
+        <f>CurrAttrValue(B185, 0)</f>
+        <v/>
+      </c>
+      <c r="G185" s="6">
+        <f>CurrAttrValue(A185, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" ht="20" customHeight="1">
+      <c r="A186" s="5">
+        <f>CONCATENATE($A$2, $A$1, C186, $B$2)</f>
+        <v/>
+      </c>
+      <c r="B186" s="5">
+        <f>CONCATENATE($A$2, $A$1, C186, $B$1)</f>
+        <v/>
+      </c>
+      <c r="C186" s="5">
+        <f>"AI.AI_T_SSN"</f>
+        <v/>
+      </c>
+      <c r="D186" s="6">
+        <f>"141"</f>
+        <v/>
+      </c>
+      <c r="E186" s="7">
+        <f>"Температура воздуха в ШСН  "</f>
+        <v/>
+      </c>
+      <c r="F186" s="6">
+        <f>CurrAttrValue(B186, 0)</f>
+        <v/>
+      </c>
+      <c r="G186" s="6">
+        <f>CurrAttrValue(A186, 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" ht="35" customHeight="1">
+      <c r="E189" s="8">
+        <f>"должность"</f>
+        <v/>
+      </c>
+      <c r="F189" s="8">
+        <f>"ФИО"</f>
+        <v/>
+      </c>
+      <c r="G189" s="8">
         <f>"подпись"</f>
         <v/>
       </c>
